--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAADCAD2-8AB3-49A8-B8E8-21CBAD01CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8257A-DD1C-4948-A7DD-1E4FA2F5DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>##group</t>
@@ -100,30 +96,6 @@
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -138,122 +110,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>首通掉落（预留）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复掉落（预留）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=GamePlayBattleLevelCfgCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>DropItemRule_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DropItemRule_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首通掉落（预留）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复掉落（预留）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#ref=GamePlayBattleLevelCfgCategory</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level4</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level4</t>
-  </si>
-  <si>
-    <t>DropItemRule_1</t>
-  </si>
-  <si>
-    <t>DropItemRule_2</t>
-  </si>
-  <si>
-    <t>Level5</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level5</t>
-  </si>
-  <si>
-    <t>Level6</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level6</t>
-  </si>
-  <si>
-    <t>Level7</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level7</t>
-  </si>
-  <si>
-    <t>Level8</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level8</t>
-  </si>
-  <si>
-    <t>Level9</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level9</t>
-  </si>
-  <si>
-    <t>Level10</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level10</t>
-  </si>
-  <si>
-    <t>Level11</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level11</t>
-  </si>
-  <si>
-    <t>Level12</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE_Level12</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Room11</t>
+  </si>
+  <si>
+    <t>ChallengeLevel6</t>
+  </si>
+  <si>
+    <t>ChallengeLevel7</t>
+  </si>
+  <si>
+    <t>ChallengeLevel8</t>
+  </si>
+  <si>
+    <t>ChallengeLevel9</t>
+  </si>
+  <si>
+    <t>ChallengeLevel10</t>
+  </si>
+  <si>
+    <t>ChallengeLevel11</t>
+  </si>
+  <si>
+    <t>ChallengeLevel12</t>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否AR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge4</t>
+  </si>
+  <si>
+    <t>string#ref=DropRuleCfgCategory?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge8</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge9</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,29 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -340,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -363,17 +330,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -384,14 +340,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -674,22 +636,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F22" sqref="F22:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,16 +668,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,259 +690,399 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="F25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="F26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
+      <c r="F28" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8257A-DD1C-4948-A7DD-1E4FA2F5DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00372CDB-079D-49CD-81DC-FE6E3AC79E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -110,14 +110,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>首通掉落（预留）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复掉落（预留）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>string#ref=GamePlayBattleLevelCfgCategory</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -236,6 +228,56 @@
   </si>
   <si>
     <t>GamePlayBattleLevel_Ar_Challenge10</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=TowerDefense_MonsterCfgCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复掉落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通掉落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng1;Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng2;Monster_BianFu1;Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1;Monster_MiFeng2;Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu1;Monster_ZhongZi1;Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1;Monster_Dan2;Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng1;Monster_MiFeng2;Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1;Monster_ZhiZhu1;Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng2;Monster_ZhongZi1;Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1;Monster_Gui1;Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_Dan2;Monster_Dan3;Monster_Niao3</t>
   </si>
 </sst>
 </file>
@@ -636,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F28"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,11 +692,12 @@
     <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -679,8 +722,11 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,13 +737,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -706,19 +753,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -731,13 +781,14 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -746,21 +797,24 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -769,15 +823,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -786,15 +840,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -803,15 +857,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -820,15 +874,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
@@ -837,15 +891,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
@@ -854,15 +908,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="4">
         <v>7</v>
@@ -871,15 +925,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
@@ -888,15 +942,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>9</v>
@@ -905,15 +959,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
         <v>10</v>
@@ -922,15 +976,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4">
         <v>11</v>
@@ -939,15 +993,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4">
         <v>12</v>
@@ -956,16 +1010,16 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -974,12 +1028,17 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -988,12 +1047,17 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -1002,12 +1066,17 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
@@ -1016,12 +1085,17 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1029,10 +1103,15 @@
       <c r="F23" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1040,10 +1119,15 @@
       <c r="F24" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
@@ -1051,10 +1135,15 @@
       <c r="F25" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="4">
         <v>8</v>
@@ -1062,10 +1151,14 @@
       <c r="F26" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="4">
         <v>9</v>
@@ -1073,10 +1166,14 @@
       <c r="F27" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="4">
         <v>10</v>
@@ -1084,9 +1181,22 @@
       <c r="F28" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00372CDB-079D-49CD-81DC-FE6E3AC79E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E79CE-9847-46D4-BFB2-C106137C5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -118,33 +118,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DropItemRule_1</t>
-  </si>
-  <si>
-    <t>DropItemRule_2</t>
-  </si>
-  <si>
-    <t>ChallengeLevel6</t>
-  </si>
-  <si>
-    <t>ChallengeLevel7</t>
-  </si>
-  <si>
-    <t>ChallengeLevel8</t>
-  </si>
-  <si>
-    <t>ChallengeLevel9</t>
-  </si>
-  <si>
-    <t>ChallengeLevel10</t>
-  </si>
-  <si>
-    <t>ChallengeLevel11</t>
-  </si>
-  <si>
-    <t>ChallengeLevel12</t>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -278,6 +251,33 @@
   </si>
   <si>
     <t>Monster_Dan2;Monster_Dan3;Monster_Niao3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge6</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge7</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge8</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge9</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge10</t>
   </si>
 </sst>
 </file>
@@ -680,24 +680,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.44140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -723,10 +723,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -753,22 +753,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -797,24 +797,24 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -823,15 +823,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -840,15 +842,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -857,15 +861,17 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -874,15 +880,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
@@ -890,16 +898,15 @@
       <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
@@ -908,15 +915,17 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4">
         <v>7</v>
@@ -924,16 +933,15 @@
       <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
@@ -942,15 +950,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E14" s="4">
         <v>9</v>
@@ -958,16 +967,14 @@
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4">
         <v>10</v>
@@ -976,50 +983,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4">
-        <v>12</v>
-      </c>
-      <c r="F17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1028,17 +1004,17 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1047,17 +1023,17 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -1066,17 +1042,17 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
@@ -1085,17 +1061,17 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1104,14 +1080,14 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1119,15 +1095,18 @@
       <c r="F24" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="G24" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
@@ -1136,14 +1115,14 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4">
         <v>8</v>
@@ -1151,14 +1130,17 @@
       <c r="F26" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="G26" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="I26" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4">
         <v>9</v>
@@ -1167,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4">
         <v>10</v>
@@ -1181,16 +1163,19 @@
       <c r="F28" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="G28" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I28" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E79CE-9847-46D4-BFB2-C106137C5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC2269A-7853-4210-96E5-D574D98FA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>##var</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
   </si>
   <si>
     <t>name</t>
@@ -114,10 +90,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>关卡索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -130,18 +102,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>isAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否AR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlayBattleLevel_Ar_Challenge1</t>
   </si>
   <si>
@@ -172,112 +132,210 @@
     <t>GamePlayBattleLevel_Challenge5</t>
   </si>
   <si>
+    <t>string#ref=DropRuleCfgCategory?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge8</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge9</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge10</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=TowerDefense_MonsterCfgCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复掉落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通掉落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng1;Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng2;Monster_BianFu1;Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1;Monster_MiFeng2;Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu1;Monster_ZhongZi1;Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1;Monster_Dan2;Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng1;Monster_MiFeng2;Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1;Monster_ZhiZhu1;Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng2;Monster_ZhongZi1;Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1;Monster_Gui1;Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_Dan2;Monster_Dan3;Monster_Niao3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge6</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge7</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge8</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge9</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge10</t>
+  </si>
+  <si>
+    <t>battleCfgId_NoAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleCfgId_AR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterListShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstRewardItemListShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatRewardItemListShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ItemCfgCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引(非AR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引(AR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通前展示物品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通后展示物品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seasonId</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>赛季</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge8</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge9</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge10</t>
+  </si>
+  <si>
+    <t>Tow25_1;Token_Diamond</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow21_1;Token_Diamond</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow11_1;Token_Diamond</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token_Diamond</t>
+  </si>
+  <si>
     <t>DropItemRule_First_Ar_Challenge1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DropItemRule_First_Ar_Challenge2</t>
   </si>
   <si>
+    <t>DropItemRule_First_Ar_Challenge8</t>
+  </si>
+  <si>
     <t>DropItemRule_First_Ar_Challenge3</t>
   </si>
   <si>
     <t>DropItemRule_First_Ar_Challenge4</t>
   </si>
   <si>
-    <t>string#ref=DropRuleCfgCategory?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Ar_Challenge6</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Ar_Challenge7</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Ar_Challenge8</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Ar_Challenge9</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Ar_Challenge10</t>
-  </si>
-  <si>
-    <t>(list#sep=;),string#ref=TowerDefense_MonsterCfgCategory</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡怪物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复掉落</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首通掉落</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_MiFeng1;Monster_MiFeng2</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng2;Monster_BianFu1;Monster_ZhiZhu1</t>
-  </si>
-  <si>
-    <t>Monster_BianFu1;Monster_MiFeng2;Monster_ZhongZi1</t>
-  </si>
-  <si>
-    <t>Monster_ZhiZhu1;Monster_ZhongZi1;Monster_Gui1</t>
-  </si>
-  <si>
-    <t>Monster_ZhongZi1;Monster_Dan2;Monster_Dan3</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng1;Monster_MiFeng2;Monster_Niao1</t>
-  </si>
-  <si>
-    <t>Monster_BianFu1;Monster_ZhiZhu1;Monster_Niao1</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng2;Monster_ZhongZi1;Monster_Niao2</t>
-  </si>
-  <si>
-    <t>Monster_ZhongZi1;Monster_Gui1;Monster_Niao2</t>
-  </si>
-  <si>
-    <t>Monster_Dan2;Monster_Dan3;Monster_Niao3</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>DropItemRule_First_Ar_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge9</t>
   </si>
   <si>
     <t>DropItemRule_First_Ar_Challenge10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge6</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge7</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge8</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge9</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge10</t>
   </si>
 </sst>
 </file>
@@ -382,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -680,53 +741,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.44140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="30.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" customWidth="1"/>
+    <col min="5" max="6" width="6.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,444 +808,451 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="K15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="20" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="21" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>49</v>
-      </c>
+    <row r="22" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="23" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="24" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7</v>
-      </c>
-      <c r="F25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="25" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="4">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>54</v>
-      </c>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="4">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>55</v>
-      </c>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.2">
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.2">
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC2269A-7853-4210-96E5-D574D98FA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EC489-974D-434A-B5B1-610CC9CDBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>##var</t>
   </si>
@@ -167,175 +167,207 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_MiFeng1;Monster_MiFeng2</t>
+    <t>Monster_BianFu1;Monster_MiFeng2;Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge6</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge7</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge8</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge9</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge10</t>
+  </si>
+  <si>
+    <t>battleCfgId_NoAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleCfgId_AR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterListShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstRewardItemListShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatRewardItemListShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引(非AR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引(AR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通前展示物品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通后展示物品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seasonId</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>赛季</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge8</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge9</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge10</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge8</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge9</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge10</t>
   </si>
   <si>
     <t>Monster_MiFeng2;Monster_BianFu1;Monster_ZhiZhu1</t>
-  </si>
-  <si>
-    <t>Monster_BianFu1;Monster_MiFeng2;Monster_ZhongZi1</t>
-  </si>
-  <si>
-    <t>Monster_ZhiZhu1;Monster_ZhongZi1;Monster_Gui1</t>
-  </si>
-  <si>
-    <t>Monster_ZhongZi1;Monster_Dan2;Monster_Dan3</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng1;Monster_MiFeng2;Monster_Niao1</t>
-  </si>
-  <si>
-    <t>Monster_BianFu1;Monster_ZhiZhu1;Monster_Niao1</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng2;Monster_ZhongZi1;Monster_Niao2</t>
-  </si>
-  <si>
-    <t>Monster_ZhongZi1;Monster_Gui1;Monster_Niao2</t>
-  </si>
-  <si>
-    <t>Monster_Dan2;Monster_Dan3;Monster_Niao3</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge6</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge7</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge8</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge9</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Challenge10</t>
-  </si>
-  <si>
-    <t>battleCfgId_NoAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleCfgId_AR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterListShow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstRewardItemListShow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeatRewardItemListShow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),string#ref=ItemCfgCategory</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡索引(非AR)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡索引(AR)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首通前展示物品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首通后展示物品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seasonId</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>赛季</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge6</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge2</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge3</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge4</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge5</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge6</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge7</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge8</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge9</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge10</t>
-  </si>
-  <si>
-    <t>Tow25_1;Token_Diamond</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow21_1;Token_Diamond</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow11_1;Token_Diamond</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token_Diamond</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge2</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge8</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge3</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge4</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge5</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge7</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge9</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng1;Monster_MiFeng2;Monster_ZhiZhu1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu2;Monster_ZhongZi2;Monster_MiFeng2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1;Monster_Gui1;Monster_ZhiZhu2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu2;Monster_ZhongZi2;Monster_Gui2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Dan2;Monster_Gui2;Monster_MiFeng2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Dan2;Monster_Gui2;Monster_BianFu2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi2;Monster_Gui2;Monster_Dan2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi2;Monster_Dan2;Monster_Dan3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(map#sep=;|),string#ref=ItemCfgCategory,int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token_Diamond;100</t>
+  </si>
+  <si>
+    <t>Token_Diamond;30</t>
+  </si>
+  <si>
+    <t>Tow21_1;1|Token_Diamond;400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow11_1;1|Token_Diamond;400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow25_1;1|Token_Diamond;100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow25_1;1|Token_Diamond;30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow21_1;1|Token_Diamond;30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow11_1;1|Token_Diamond;30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow8_1;1|Token_Diamond;100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow8_1;1|Token_Diamond;30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -741,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,9 +784,10 @@
     <col min="4" max="4" width="32" style="2" customWidth="1"/>
     <col min="5" max="6" width="6.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="46.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -763,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -787,13 +820,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -817,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -844,10 +877,10 @@
         <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -873,13 +906,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -900,10 +933,10 @@
         <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -920,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -949,19 +982,19 @@
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -978,19 +1011,19 @@
         <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1007,19 +1040,19 @@
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1036,19 +1069,19 @@
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1056,7 +1089,7 @@
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>27</v>
@@ -1065,19 +1098,19 @@
         <v>6</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1085,7 +1118,7 @@
         <v>-1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -1094,19 +1127,19 @@
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1114,7 +1147,7 @@
         <v>-1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -1123,19 +1156,19 @@
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1143,7 +1176,7 @@
         <v>-1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
@@ -1152,19 +1185,19 @@
         <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1172,7 +1205,7 @@
         <v>-1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>31</v>
@@ -1181,19 +1214,19 @@
         <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EC489-974D-434A-B5B1-610CC9CDBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8322B7E-1F09-47E6-A33C-54BA0E4700B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -167,9 +170,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_BianFu1;Monster_MiFeng2;Monster_ZhongZi1</t>
-  </si>
-  <si>
     <t>GamePlayBattleLevel_Challenge6</t>
   </si>
   <si>
@@ -230,144 +230,73 @@
     <t>赛季</t>
   </si>
   <si>
-    <t>DropItemRule_First_Ar_Challenge6</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge2</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge3</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge4</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge5</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge6</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge7</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge8</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge9</t>
-  </si>
-  <si>
-    <t>DropItemRule_Common_Ar_Challenge10</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge2</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge8</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge3</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge4</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge5</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge7</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge9</t>
-  </si>
-  <si>
-    <t>DropItemRule_First_Ar_Challenge10</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng2;Monster_BianFu1;Monster_ZhiZhu1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_MiFeng1;Monster_MiFeng2;Monster_ZhiZhu1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_ZhiZhu2;Monster_ZhongZi2;Monster_MiFeng2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_ZhongZi1;Monster_Gui1;Monster_ZhiZhu2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_ZhiZhu2;Monster_ZhongZi2;Monster_Gui2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Dan2;Monster_Gui2;Monster_MiFeng2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Dan2;Monster_Gui2;Monster_BianFu2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_ZhongZi2;Monster_Gui2;Monster_Dan2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_ZhongZi2;Monster_Dan2;Monster_Dan3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>(map#sep=;|),string#ref=ItemCfgCategory,int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Token_Diamond;100</t>
-  </si>
-  <si>
-    <t>Token_Diamond;30</t>
-  </si>
-  <si>
-    <t>Tow21_1;1|Token_Diamond;400</t>
+    <t>辅助列</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Tow11_1;1|Token_Diamond;400</t>
+    <t>DropItemRule_First_Season0_Challenge1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Tow25_1;1|Token_Diamond;100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow25_1;1|Token_Diamond;30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow21_1;1|Token_Diamond;30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow11_1;1|Token_Diamond;30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow8_1;1|Token_Diamond;100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow8_1;1|Token_Diamond;30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>DropItemRule_First_Season0_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge8</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge9</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge10</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge8</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge9</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge10</t>
   </si>
 </sst>
 </file>
@@ -506,6 +435,3192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="参考"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>名字</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>稀有度</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>性价比</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>价格</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>dps</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>特色</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击LV1</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻击LV2</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>攻击LV3</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>技能cd</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>目标数量</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>射程</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>特殊参数</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>参数1</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>参数2</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>参数3</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>参数4</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>LV1攻击</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>LV2攻击</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>LV3攻击</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>TowerId</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>100</v>
+          </cell>
+          <cell r="E2">
+            <v>100</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>快速单体，能应对各种情况</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>180</v>
+          </cell>
+          <cell r="I2">
+            <v>648</v>
+          </cell>
+          <cell r="J2">
+            <v>0.5</v>
+          </cell>
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="L2">
+            <v>9</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>3级暴击率/爆伤</v>
+          </cell>
+          <cell r="N2">
+            <v>0.15</v>
+          </cell>
+          <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="R2">
+            <v>1</v>
+          </cell>
+          <cell r="S2">
+            <v>3.6</v>
+          </cell>
+          <cell r="T2">
+            <v>12.96</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>Tow1_1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>100</v>
+          </cell>
+          <cell r="E3">
+            <v>100</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>快速群体，能应对各种情况</v>
+          </cell>
+          <cell r="G3">
+            <v>17</v>
+          </cell>
+          <cell r="H3">
+            <v>61</v>
+          </cell>
+          <cell r="I3">
+            <v>220</v>
+          </cell>
+          <cell r="J3">
+            <v>0.5</v>
+          </cell>
+          <cell r="K3">
+            <v>3</v>
+          </cell>
+          <cell r="L3">
+            <v>9</v>
+          </cell>
+          <cell r="R3">
+            <v>1</v>
+          </cell>
+          <cell r="S3">
+            <v>3.6</v>
+          </cell>
+          <cell r="T3">
+            <v>12.96</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>Tow2_1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>1.4</v>
+          </cell>
+          <cell r="D4">
+            <v>400</v>
+          </cell>
+          <cell r="E4">
+            <v>560</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>直线群体，高级后可灼烧</v>
+          </cell>
+          <cell r="G4">
+            <v>17</v>
+          </cell>
+          <cell r="H4">
+            <v>61</v>
+          </cell>
+          <cell r="I4">
+            <v>220</v>
+          </cell>
+          <cell r="J4">
+            <v>0.3</v>
+          </cell>
+          <cell r="K4">
+            <v>5</v>
+          </cell>
+          <cell r="L4">
+            <v>9</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
+          </cell>
+          <cell r="N4">
+            <v>0.5</v>
+          </cell>
+          <cell r="O4">
+            <v>10</v>
+          </cell>
+          <cell r="P4">
+            <v>0.3</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.5</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+          <cell r="S4">
+            <v>3.6</v>
+          </cell>
+          <cell r="T4">
+            <v>12.96</v>
+          </cell>
+          <cell r="U4" t="str">
+            <v>Tow3_1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5">
+            <v>1.2</v>
+          </cell>
+          <cell r="D5">
+            <v>200</v>
+          </cell>
+          <cell r="E5">
+            <v>240</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>圆形群体</v>
+          </cell>
+          <cell r="G5">
+            <v>7</v>
+          </cell>
+          <cell r="H5">
+            <v>25</v>
+          </cell>
+          <cell r="I5">
+            <v>90</v>
+          </cell>
+          <cell r="J5">
+            <v>0.3</v>
+          </cell>
+          <cell r="K5">
+            <v>7</v>
+          </cell>
+          <cell r="L5">
+            <v>9</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>远处增伤率</v>
+          </cell>
+          <cell r="N5">
+            <v>0.06</v>
+          </cell>
+          <cell r="R5">
+            <v>1</v>
+          </cell>
+          <cell r="S5">
+            <v>3.6</v>
+          </cell>
+          <cell r="T5">
+            <v>12.96</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>Tow4_1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6">
+            <v>1.2</v>
+          </cell>
+          <cell r="D6">
+            <v>200</v>
+          </cell>
+          <cell r="E6">
+            <v>240</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>慢速单体，单发伤害高</v>
+          </cell>
+          <cell r="G6">
+            <v>480</v>
+          </cell>
+          <cell r="H6">
+            <v>1728</v>
+          </cell>
+          <cell r="I6">
+            <v>3110</v>
+          </cell>
+          <cell r="J6">
+            <v>2</v>
+          </cell>
+          <cell r="K6">
+            <v>1</v>
+          </cell>
+          <cell r="L6">
+            <v>9</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>3级目标</v>
+          </cell>
+          <cell r="N6">
+            <v>2</v>
+          </cell>
+          <cell r="R6">
+            <v>1</v>
+          </cell>
+          <cell r="S6">
+            <v>3.6</v>
+          </cell>
+          <cell r="T6">
+            <v>12.96</v>
+          </cell>
+          <cell r="U6" t="str">
+            <v>Tow5_1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7">
+            <v>1.4</v>
+          </cell>
+          <cell r="D7">
+            <v>400</v>
+          </cell>
+          <cell r="E7">
+            <v>560</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>高处加成，单体</v>
+          </cell>
+          <cell r="G7">
+            <v>373</v>
+          </cell>
+          <cell r="H7">
+            <v>1342</v>
+          </cell>
+          <cell r="I7">
+            <v>2417</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="L7">
+            <v>7.5</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>低处增伤率，3级目标，加成高度</v>
+          </cell>
+          <cell r="N7">
+            <v>0.1</v>
+          </cell>
+          <cell r="O7">
+            <v>2</v>
+          </cell>
+          <cell r="P7">
+            <v>5</v>
+          </cell>
+          <cell r="R7">
+            <v>1</v>
+          </cell>
+          <cell r="S7">
+            <v>3.6</v>
+          </cell>
+          <cell r="T7">
+            <v>12.96</v>
+          </cell>
+          <cell r="U7" t="str">
+            <v>Tow6_1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>100</v>
+          </cell>
+          <cell r="E8">
+            <v>100</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>减速</v>
+          </cell>
+          <cell r="G8">
+            <v>33</v>
+          </cell>
+          <cell r="H8">
+            <v>118</v>
+          </cell>
+          <cell r="I8">
+            <v>427</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8">
+            <v>3</v>
+          </cell>
+          <cell r="L8">
+            <v>7.5</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>减速率lv1/2/3</v>
+          </cell>
+          <cell r="N8">
+            <v>0.25</v>
+          </cell>
+          <cell r="O8">
+            <v>0.4</v>
+          </cell>
+          <cell r="P8">
+            <v>0.5</v>
+          </cell>
+          <cell r="R8">
+            <v>1</v>
+          </cell>
+          <cell r="S8">
+            <v>3.6</v>
+          </cell>
+          <cell r="T8">
+            <v>12.96</v>
+          </cell>
+          <cell r="U8" t="str">
+            <v>Tow7_1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.2</v>
+          </cell>
+          <cell r="D9">
+            <v>200</v>
+          </cell>
+          <cell r="E9">
+            <v>240</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>生产金币</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>每回合金币</v>
+          </cell>
+          <cell r="N9">
+            <v>30</v>
+          </cell>
+          <cell r="O9">
+            <v>120</v>
+          </cell>
+          <cell r="P9">
+            <v>480</v>
+          </cell>
+          <cell r="R9">
+            <v>1</v>
+          </cell>
+          <cell r="S9">
+            <v>3.6</v>
+          </cell>
+          <cell r="T9">
+            <v>12.96</v>
+          </cell>
+          <cell r="U9" t="str">
+            <v>Tow10_1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>100</v>
+          </cell>
+          <cell r="E10">
+            <v>100</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>加速友军</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>7.5</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>CD减少lv1/2/3</v>
+          </cell>
+          <cell r="N10">
+            <v>0.3</v>
+          </cell>
+          <cell r="O10">
+            <v>0.5</v>
+          </cell>
+          <cell r="P10">
+            <v>0.6</v>
+          </cell>
+          <cell r="R10">
+            <v>1</v>
+          </cell>
+          <cell r="S10">
+            <v>3.6</v>
+          </cell>
+          <cell r="T10">
+            <v>12.96</v>
+          </cell>
+          <cell r="U10" t="str">
+            <v>Tow8_1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+          <cell r="C11">
+            <v>1.2</v>
+          </cell>
+          <cell r="D11">
+            <v>200</v>
+          </cell>
+          <cell r="E11">
+            <v>240</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>单体，让敌人中毒</v>
+          </cell>
+          <cell r="G11">
+            <v>120</v>
+          </cell>
+          <cell r="H11">
+            <v>432</v>
+          </cell>
+          <cell r="I11">
+            <v>1555</v>
+          </cell>
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+          <cell r="L11">
+            <v>9</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>毒伤lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N11">
+            <v>0.01</v>
+          </cell>
+          <cell r="O11">
+            <v>0.02</v>
+          </cell>
+          <cell r="P11">
+            <v>0.03</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.5</v>
+          </cell>
+          <cell r="R11">
+            <v>1</v>
+          </cell>
+          <cell r="S11">
+            <v>3.6</v>
+          </cell>
+          <cell r="T11">
+            <v>12.96</v>
+          </cell>
+          <cell r="U11" t="str">
+            <v>Tow11_1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>70</v>
+          </cell>
+          <cell r="E12">
+            <v>70</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>消耗型，用完造成一次高额伤害</v>
+          </cell>
+          <cell r="G12">
+            <v>2000</v>
+          </cell>
+          <cell r="H12">
+            <v>7200</v>
+          </cell>
+          <cell r="I12">
+            <v>25920</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>7.5</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>伤害/眩晕</v>
+          </cell>
+          <cell r="N12">
+            <v>2000</v>
+          </cell>
+          <cell r="O12">
+            <v>3</v>
+          </cell>
+          <cell r="R12">
+            <v>1</v>
+          </cell>
+          <cell r="S12">
+            <v>3.6</v>
+          </cell>
+          <cell r="T12">
+            <v>12.96</v>
+          </cell>
+          <cell r="U12" t="str">
+            <v>Tow25_1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>100</v>
+          </cell>
+          <cell r="E13">
+            <v>100</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>攻击偷金币</v>
+          </cell>
+          <cell r="G13">
+            <v>50</v>
+          </cell>
+          <cell r="H13">
+            <v>180</v>
+          </cell>
+          <cell r="I13">
+            <v>648</v>
+          </cell>
+          <cell r="J13">
+            <v>1</v>
+          </cell>
+          <cell r="K13">
+            <v>1</v>
+          </cell>
+          <cell r="L13">
+            <v>7.5</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>偷钱数lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N13">
+            <v>1</v>
+          </cell>
+          <cell r="O13">
+            <v>4</v>
+          </cell>
+          <cell r="P13">
+            <v>15</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.5</v>
+          </cell>
+          <cell r="R13">
+            <v>1</v>
+          </cell>
+          <cell r="S13">
+            <v>3.6</v>
+          </cell>
+          <cell r="T13">
+            <v>12.96</v>
+          </cell>
+          <cell r="U13" t="str">
+            <v>Tow21_1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="B14">
+            <v>2</v>
+          </cell>
+          <cell r="C14">
+            <v>1.2</v>
+          </cell>
+          <cell r="D14">
+            <v>200</v>
+          </cell>
+          <cell r="E14">
+            <v>240</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>抛物线群体，打远处伤害高</v>
+          </cell>
+          <cell r="G14">
+            <v>104</v>
+          </cell>
+          <cell r="H14">
+            <v>374</v>
+          </cell>
+          <cell r="I14">
+            <v>1347</v>
+          </cell>
+          <cell r="J14">
+            <v>2</v>
+          </cell>
+          <cell r="K14">
+            <v>3</v>
+          </cell>
+          <cell r="L14">
+            <v>9</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>远处增伤率lv1/2/3</v>
+          </cell>
+          <cell r="N14">
+            <v>0.06</v>
+          </cell>
+          <cell r="R14">
+            <v>1</v>
+          </cell>
+          <cell r="S14">
+            <v>3.6</v>
+          </cell>
+          <cell r="T14">
+            <v>12.96</v>
+          </cell>
+          <cell r="U14" t="str">
+            <v>Tow23_1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="B15">
+            <v>3</v>
+          </cell>
+          <cell r="C15">
+            <v>1.4</v>
+          </cell>
+          <cell r="D15">
+            <v>400</v>
+          </cell>
+          <cell r="E15">
+            <v>560</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>扇形群体，可击退敌人</v>
+          </cell>
+          <cell r="G15">
+            <v>373</v>
+          </cell>
+          <cell r="H15">
+            <v>1342</v>
+          </cell>
+          <cell r="I15">
+            <v>4834</v>
+          </cell>
+          <cell r="J15">
+            <v>2</v>
+          </cell>
+          <cell r="K15">
+            <v>3</v>
+          </cell>
+          <cell r="L15">
+            <v>7.5</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>近处增伤率lv1/2/3；眩晕时间</v>
+          </cell>
+          <cell r="N15">
+            <v>-7.0000000000000007E-2</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+          <cell r="R15">
+            <v>1</v>
+          </cell>
+          <cell r="S15">
+            <v>3.6</v>
+          </cell>
+          <cell r="T15">
+            <v>12.96</v>
+          </cell>
+          <cell r="U15" t="str">
+            <v>Tow26_1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+          <cell r="C16">
+            <v>1.2</v>
+          </cell>
+          <cell r="D16">
+            <v>200</v>
+          </cell>
+          <cell r="E16">
+            <v>240</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>直线群体，子弹可穿透</v>
+          </cell>
+          <cell r="G16">
+            <v>160</v>
+          </cell>
+          <cell r="H16">
+            <v>576</v>
+          </cell>
+          <cell r="I16">
+            <v>2073</v>
+          </cell>
+          <cell r="J16">
+            <v>2</v>
+          </cell>
+          <cell r="K16">
+            <v>3</v>
+          </cell>
+          <cell r="L16">
+            <v>7.5</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>3级射程</v>
+          </cell>
+          <cell r="N16">
+            <v>15</v>
+          </cell>
+          <cell r="R16">
+            <v>1</v>
+          </cell>
+          <cell r="S16">
+            <v>3.6</v>
+          </cell>
+          <cell r="T16">
+            <v>12.96</v>
+          </cell>
+          <cell r="U16" t="str">
+            <v>Tow17_1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="B17">
+            <v>3</v>
+          </cell>
+          <cell r="C17">
+            <v>1.4</v>
+          </cell>
+          <cell r="D17">
+            <v>400</v>
+          </cell>
+          <cell r="E17">
+            <v>560</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>同时发射多弹道，可单可群</v>
+          </cell>
+          <cell r="G17">
+            <v>187</v>
+          </cell>
+          <cell r="H17">
+            <v>673</v>
+          </cell>
+          <cell r="I17">
+            <v>1615</v>
+          </cell>
+          <cell r="J17">
+            <v>2</v>
+          </cell>
+          <cell r="K17">
+            <v>1</v>
+          </cell>
+          <cell r="L17">
+            <v>9</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>1、2级弹药/3级弹药</v>
+          </cell>
+          <cell r="N17">
+            <v>6</v>
+          </cell>
+          <cell r="O17">
+            <v>9</v>
+          </cell>
+          <cell r="R17">
+            <v>1</v>
+          </cell>
+          <cell r="S17">
+            <v>3.6</v>
+          </cell>
+          <cell r="T17">
+            <v>12.96</v>
+          </cell>
+          <cell r="U17" t="str">
+            <v>Tow9_1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>快速单体，能应对各种情况</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>快速群体，能应对各种情况</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>直线群体，高级后可灼烧</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>圆形群体</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>慢速单体，单发伤害高</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>高处加成，单体</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>减速</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>生产金币</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>加速友军</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>单体，让敌人中毒</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>消耗型，用完造成一次高额伤害</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>攻击偷金币</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>抛物线群体，打远处伤害高</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>扇形群体，可击退敌人</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>直线群体，子弹可穿透</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>同时发射多弹道，可单可群</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>模型</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>模型id</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>特色</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>生命系数</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>奖励系数</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>移速系数</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>体型系数</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>通用技能</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>死亡表现</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>展示怪物id</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>蜜蜂1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>ResUnit_MiFeng1</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>2</v>
+          </cell>
+          <cell r="H2">
+            <v>1</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Monster_MiFeng1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>ResUnit_MiFeng2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E3">
+            <v>4</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>2</v>
+          </cell>
+          <cell r="H3">
+            <v>1.5</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>Monster_MiFeng2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>蜜蜂3</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>ResUnit_MiFeng3</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>召唤</v>
+          </cell>
+          <cell r="E4">
+            <v>16</v>
+          </cell>
+          <cell r="F4">
+            <v>5</v>
+          </cell>
+          <cell r="G4">
+            <v>1.25</v>
+          </cell>
+          <cell r="H4">
+            <v>2.5</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Skill_Monster_MiFeng3,NormalAttack</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>Monster_MiFeng3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>ResUnit_BianFu1</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>2</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>Monster_BianFu1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>ResUnit_BianFu2</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E6">
+            <v>4</v>
+          </cell>
+          <cell r="F6">
+            <v>2</v>
+          </cell>
+          <cell r="G6">
+            <v>2</v>
+          </cell>
+          <cell r="H6">
+            <v>1.5</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>Monster_BianFu2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>蝙蝠3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>ResUnit_BianFu3</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E7">
+            <v>16</v>
+          </cell>
+          <cell r="F7">
+            <v>5</v>
+          </cell>
+          <cell r="G7">
+            <v>1.25</v>
+          </cell>
+          <cell r="H7">
+            <v>2.5</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>Monster_BianFu3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>ResUnit_ZhiZhu1</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>4</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>Monster_ZhiZhu1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>ResUnit_ZhiZhu2</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="E9">
+            <v>4</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>4</v>
+          </cell>
+          <cell r="H9">
+            <v>1.5</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>Monster_ZhiZhu2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>蜘蛛3</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>ResUnit_ZhiZhu3</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="E10">
+            <v>16</v>
+          </cell>
+          <cell r="F10">
+            <v>5</v>
+          </cell>
+          <cell r="G10">
+            <v>2.5</v>
+          </cell>
+          <cell r="H10">
+            <v>2.5</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>Monster_ZhiZhu3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>种子1</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>ResUnit_ZhongZi1</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+          <cell r="F11">
+            <v>1</v>
+          </cell>
+          <cell r="G11">
+            <v>2</v>
+          </cell>
+          <cell r="H11">
+            <v>1</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>Skill_Monster_ZhongZi1,NormalAttack</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>Monster_ZhongZi1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>ResUnit_ZhongZi2</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>群体治疗‘</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
+          <cell r="F12">
+            <v>2</v>
+          </cell>
+          <cell r="G12">
+            <v>2</v>
+          </cell>
+          <cell r="H12">
+            <v>1.5</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>Skill_Monster_ZhongZi2,NormalAttack</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>Monster_ZhongZi2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>种子3</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>ResUnit_ZhongZi3</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>群体治疗‘</v>
+          </cell>
+          <cell r="E13">
+            <v>16</v>
+          </cell>
+          <cell r="F13">
+            <v>5</v>
+          </cell>
+          <cell r="G13">
+            <v>1.25</v>
+          </cell>
+          <cell r="H13">
+            <v>2.5</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>Skill_Monster_ZhongZi3,NormalAttack</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>Monster_ZhongZi3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>ResUnit_Gui1</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>隐身</v>
+          </cell>
+          <cell r="E14">
+            <v>1</v>
+          </cell>
+          <cell r="F14">
+            <v>1</v>
+          </cell>
+          <cell r="G14">
+            <v>2</v>
+          </cell>
+          <cell r="H14">
+            <v>1</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>Skill_Monster_Gui1,NormalAttack</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>Monster_Gui1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>ResUnit_Gui2</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>群体隐身</v>
+          </cell>
+          <cell r="E15">
+            <v>4</v>
+          </cell>
+          <cell r="F15">
+            <v>2</v>
+          </cell>
+          <cell r="G15">
+            <v>2</v>
+          </cell>
+          <cell r="H15">
+            <v>1.5</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>Skill_Monster_Gui2,NormalAttack</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>Monster_Gui2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>鬼3</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>ResUnit_Gui3</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>隐身</v>
+          </cell>
+          <cell r="E16">
+            <v>16</v>
+          </cell>
+          <cell r="F16">
+            <v>5</v>
+          </cell>
+          <cell r="G16">
+            <v>1.25</v>
+          </cell>
+          <cell r="H16">
+            <v>2.5</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>Skill_Monster_Gui3,NormalAttack</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>Monster_Gui3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>ResUnit_Dan1</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>死亡弱化</v>
+          </cell>
+          <cell r="E17">
+            <v>1</v>
+          </cell>
+          <cell r="F17">
+            <v>1</v>
+          </cell>
+          <cell r="G17">
+            <v>2</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>Skill_Monster_Dan1,NormalAttack</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>Monster_Dan1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>ResUnit_Dan2</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>弱化</v>
+          </cell>
+          <cell r="E18">
+            <v>4</v>
+          </cell>
+          <cell r="F18">
+            <v>2</v>
+          </cell>
+          <cell r="G18">
+            <v>2</v>
+          </cell>
+          <cell r="H18">
+            <v>1.5</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>Skill_Monster_Dan2,NormalAttack</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>Monster_Dan2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>蛋3</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>ResUnit_Dan3</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>眩晕塔</v>
+          </cell>
+          <cell r="E19">
+            <v>16</v>
+          </cell>
+          <cell r="F19">
+            <v>5</v>
+          </cell>
+          <cell r="G19">
+            <v>1.25</v>
+          </cell>
+          <cell r="H19">
+            <v>2.5</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>Skill_Monster_Dan3,InitiativeSkill</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>Monster_Dan3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>ResUnit_Niao1</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="E20">
+            <v>1</v>
+          </cell>
+          <cell r="F20">
+            <v>1</v>
+          </cell>
+          <cell r="G20">
+            <v>2</v>
+          </cell>
+          <cell r="H20">
+            <v>1</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>Skill_Monster_Niao1,NormalAttack</v>
+          </cell>
+          <cell r="J20" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>Monster_Niao1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>鸟2</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>ResUnit_Niao2</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>群体加速</v>
+          </cell>
+          <cell r="E21">
+            <v>4</v>
+          </cell>
+          <cell r="F21">
+            <v>2</v>
+          </cell>
+          <cell r="G21">
+            <v>2</v>
+          </cell>
+          <cell r="H21">
+            <v>1.5</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>Skill_Monster_Niao2,NormalAttack</v>
+          </cell>
+          <cell r="J21" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>Monster_Niao2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>鸟3</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>ResUnit_Niao3</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>群体霸体</v>
+          </cell>
+          <cell r="E22">
+            <v>16</v>
+          </cell>
+          <cell r="F22">
+            <v>3</v>
+          </cell>
+          <cell r="G22">
+            <v>1.25</v>
+          </cell>
+          <cell r="H22">
+            <v>2.5</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>Skill_Monster_Niao3,NormalAttack</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>Monster_Niao3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>ResUnit_Rou1</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>高攻击</v>
+          </cell>
+          <cell r="E23">
+            <v>1</v>
+          </cell>
+          <cell r="F23">
+            <v>1</v>
+          </cell>
+          <cell r="G23">
+            <v>2</v>
+          </cell>
+          <cell r="H23">
+            <v>1</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>Skill_Monster_Long1,NormalAttack</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>Monster_Rou1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>龙2</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>ResUnit_Rou2</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>群体加攻</v>
+          </cell>
+          <cell r="E24">
+            <v>4</v>
+          </cell>
+          <cell r="F24">
+            <v>2</v>
+          </cell>
+          <cell r="G24">
+            <v>2</v>
+          </cell>
+          <cell r="H24">
+            <v>1.5</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>Skill_Monster_Long2,NormalAttack</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>Monster_Rou2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>龙3</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>ResUnit_Rou3</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>破坏塔</v>
+          </cell>
+          <cell r="E25">
+            <v>16</v>
+          </cell>
+          <cell r="F25">
+            <v>3</v>
+          </cell>
+          <cell r="G25">
+            <v>1.25</v>
+          </cell>
+          <cell r="H25">
+            <v>2.5</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>Skill_Monster_Long3,InitiativeSkill</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>Monster_Rou3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>ResUnit_XueRen1</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>持续变弱</v>
+          </cell>
+          <cell r="E26">
+            <v>2</v>
+          </cell>
+          <cell r="F26">
+            <v>1</v>
+          </cell>
+          <cell r="G26">
+            <v>2</v>
+          </cell>
+          <cell r="H26">
+            <v>1</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>Skill_Monster_XueRen1,NormalAttack</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>Monster_XueRen1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>雪人2</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>ResUnit_XueRen2</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>出场护盾</v>
+          </cell>
+          <cell r="E27">
+            <v>4</v>
+          </cell>
+          <cell r="F27">
+            <v>2</v>
+          </cell>
+          <cell r="G27">
+            <v>2</v>
+          </cell>
+          <cell r="H27">
+            <v>1.5</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>Skill_Monster_XueRen2,NormalAttack</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>Monster_XueRen2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>雪人3</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>ResUnit_XueRen3</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>范围冰冻</v>
+          </cell>
+          <cell r="E28">
+            <v>16</v>
+          </cell>
+          <cell r="F28">
+            <v>3</v>
+          </cell>
+          <cell r="G28">
+            <v>1.25</v>
+          </cell>
+          <cell r="H28">
+            <v>2.5</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>Skill_Monster_XueRen3,InitiativeSkill</v>
+          </cell>
+          <cell r="J28" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>Monster_XueRen3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>ResUnit_WuGui1</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>停留减伤</v>
+          </cell>
+          <cell r="E29">
+            <v>1</v>
+          </cell>
+          <cell r="F29">
+            <v>1</v>
+          </cell>
+          <cell r="G29">
+            <v>2</v>
+          </cell>
+          <cell r="H29">
+            <v>1</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>Skill_Monster_WuGui1,NormalAttack</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>Monster_WuGui1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>乌龟2</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>ResUnit_WuGui2</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>快速移动减伤</v>
+          </cell>
+          <cell r="E30">
+            <v>4</v>
+          </cell>
+          <cell r="F30">
+            <v>2</v>
+          </cell>
+          <cell r="G30">
+            <v>2</v>
+          </cell>
+          <cell r="H30">
+            <v>1.5</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>Skill_Monster_WuGui2,NormalAttack</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>Monster_WuGui2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>乌龟3</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>ResUnit_WuGui3</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>群体减伤</v>
+          </cell>
+          <cell r="E31">
+            <v>16</v>
+          </cell>
+          <cell r="F31">
+            <v>3</v>
+          </cell>
+          <cell r="G31">
+            <v>1.25</v>
+          </cell>
+          <cell r="H31">
+            <v>2.5</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>Skill_Monster_WuGui3,NormalAttack</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>Monster_WuGui3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>索引</v>
+          </cell>
+          <cell r="AW1" t="str">
+            <v>赛季</v>
+          </cell>
+          <cell r="AX1" t="str">
+            <v>关卡</v>
+          </cell>
+          <cell r="AY1" t="str">
+            <v>特殊怪</v>
+          </cell>
+          <cell r="AZ1" t="str">
+            <v>怪物</v>
+          </cell>
+          <cell r="BA1" t="str">
+            <v>新内容/技巧</v>
+          </cell>
+          <cell r="BB1" t="str">
+            <v>奖励塔</v>
+          </cell>
+          <cell r="BC1" t="str">
+            <v>首次奖励钻石</v>
+          </cell>
+          <cell r="BD1" t="str">
+            <v>重复奖励钻石</v>
+          </cell>
+          <cell r="BE1" t="str">
+            <v>展示怪物1</v>
+          </cell>
+          <cell r="BF1" t="str">
+            <v>展示怪物2</v>
+          </cell>
+          <cell r="BG1" t="str">
+            <v>展示怪物3</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="AV2" t="str">
+            <v>0_1</v>
+          </cell>
+          <cell r="AW2">
+            <v>0</v>
+          </cell>
+          <cell r="AX2">
+            <v>1</v>
+          </cell>
+          <cell r="AY2" t="str">
+            <v>肉</v>
+          </cell>
+          <cell r="AZ2" t="str">
+            <v>蜜蜂1、蜜蜂2</v>
+          </cell>
+          <cell r="BA2" t="str">
+            <v>弩箭塔、加农炮、冰魔塔</v>
+          </cell>
+          <cell r="BB2" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="BC2">
+            <v>50</v>
+          </cell>
+          <cell r="BD2">
+            <v>30</v>
+          </cell>
+          <cell r="BE2" t="str">
+            <v>蜜蜂1</v>
+          </cell>
+          <cell r="BF2" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AV3" t="str">
+            <v>0_2</v>
+          </cell>
+          <cell r="AW3">
+            <v>0</v>
+          </cell>
+          <cell r="AX3">
+            <v>2</v>
+          </cell>
+          <cell r="AY3" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="AZ3" t="str">
+            <v>蜜蜂1、蜜蜂2、蜘蛛1</v>
+          </cell>
+          <cell r="BA3" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="BB3" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="BC3">
+            <v>80</v>
+          </cell>
+          <cell r="BD3">
+            <v>30</v>
+          </cell>
+          <cell r="BE3" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BF3" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AV4" t="str">
+            <v>0_3</v>
+          </cell>
+          <cell r="AW4">
+            <v>0</v>
+          </cell>
+          <cell r="AX4">
+            <v>3</v>
+          </cell>
+          <cell r="AY4" t="str">
+            <v>隐身</v>
+          </cell>
+          <cell r="AZ4" t="str">
+            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1</v>
+          </cell>
+          <cell r="BA4" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="BB4" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="BC4">
+            <v>110</v>
+          </cell>
+          <cell r="BD4">
+            <v>30</v>
+          </cell>
+          <cell r="BE4" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BF4" t="str">
+            <v>鬼1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AV5" t="str">
+            <v>0_4</v>
+          </cell>
+          <cell r="AW5">
+            <v>0</v>
+          </cell>
+          <cell r="AX5">
+            <v>4</v>
+          </cell>
+          <cell r="AY5" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="AZ5" t="str">
+            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BA5" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="BB5" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="BC5">
+            <v>150</v>
+          </cell>
+          <cell r="BD5">
+            <v>30</v>
+          </cell>
+          <cell r="BE5" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BF5" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BG5" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AV6" t="str">
+            <v>0_5</v>
+          </cell>
+          <cell r="AW6">
+            <v>0</v>
+          </cell>
+          <cell r="AX6">
+            <v>5</v>
+          </cell>
+          <cell r="AY6" t="str">
+            <v>Boss-召唤蜜蜂</v>
+          </cell>
+          <cell r="AZ6" t="str">
+            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1、种子1、蜜蜂3</v>
+          </cell>
+          <cell r="BA6" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="BB6" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="BC6">
+            <v>200</v>
+          </cell>
+          <cell r="BD6">
+            <v>30</v>
+          </cell>
+          <cell r="BE6" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BF6" t="str">
+            <v>种子1</v>
+          </cell>
+          <cell r="BG6" t="str">
+            <v>蜜蜂3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AV7" t="str">
+            <v>0_6</v>
+          </cell>
+          <cell r="AW7">
+            <v>0</v>
+          </cell>
+          <cell r="AX7">
+            <v>6</v>
+          </cell>
+          <cell r="AY7" t="str">
+            <v>死亡弱化</v>
+          </cell>
+          <cell r="AZ7" t="str">
+            <v>蝙蝠1、蛋1</v>
+          </cell>
+          <cell r="BA7" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="BB7" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="BC7">
+            <v>260</v>
+          </cell>
+          <cell r="BD7">
+            <v>30</v>
+          </cell>
+          <cell r="BE7" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BF7" t="str">
+            <v>蛋1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AV8" t="str">
+            <v>0_7</v>
+          </cell>
+          <cell r="AW8">
+            <v>0</v>
+          </cell>
+          <cell r="AX8">
+            <v>7</v>
+          </cell>
+          <cell r="AY8" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="AZ8" t="str">
+            <v>蝙蝠1、蛋1、蛋2</v>
+          </cell>
+          <cell r="BA8" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="BB8" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="BC8">
+            <v>330</v>
+          </cell>
+          <cell r="BD8">
+            <v>30</v>
+          </cell>
+          <cell r="BE8" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BF8" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AV9" t="str">
+            <v>0_8</v>
+          </cell>
+          <cell r="AW9">
+            <v>0</v>
+          </cell>
+          <cell r="AX9">
+            <v>8</v>
+          </cell>
+          <cell r="AY9" t="str">
+            <v>群体隐身</v>
+          </cell>
+          <cell r="AZ9" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BA9" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="BB9" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="BC9">
+            <v>410</v>
+          </cell>
+          <cell r="BD9">
+            <v>30</v>
+          </cell>
+          <cell r="BE9" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BF9" t="str">
+            <v>鬼2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AV10" t="str">
+            <v>0_9</v>
+          </cell>
+          <cell r="AW10">
+            <v>0</v>
+          </cell>
+          <cell r="AX10">
+            <v>9</v>
+          </cell>
+          <cell r="AY10" t="str">
+            <v>群体治疗</v>
+          </cell>
+          <cell r="AZ10" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BA10" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="BC10">
+            <v>500</v>
+          </cell>
+          <cell r="BD10">
+            <v>30</v>
+          </cell>
+          <cell r="BE10" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BF10" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BG10" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AV11" t="str">
+            <v>0_10</v>
+          </cell>
+          <cell r="AW11">
+            <v>0</v>
+          </cell>
+          <cell r="AX11">
+            <v>10</v>
+          </cell>
+          <cell r="AY11" t="str">
+            <v>BOSS-眩晕1个塔</v>
+          </cell>
+          <cell r="AZ11" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、蛋3</v>
+          </cell>
+          <cell r="BA11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="BB11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="BC11">
+            <v>610</v>
+          </cell>
+          <cell r="BD11">
+            <v>30</v>
+          </cell>
+          <cell r="BE11" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BF11" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BG11" t="str">
+            <v>蛋3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AV12" t="str">
+            <v>1_1</v>
+          </cell>
+          <cell r="AW12">
+            <v>1</v>
+          </cell>
+          <cell r="AX12">
+            <v>1</v>
+          </cell>
+          <cell r="AY12" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="AZ12" t="str">
+            <v>蜜蜂1、鸟1、蜘蛛1</v>
+          </cell>
+          <cell r="BC12">
+            <v>500</v>
+          </cell>
+          <cell r="BD12">
+            <v>30</v>
+          </cell>
+          <cell r="BE12" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="BF12" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AV13" t="str">
+            <v>1_2</v>
+          </cell>
+          <cell r="AW13">
+            <v>1</v>
+          </cell>
+          <cell r="AX13">
+            <v>2</v>
+          </cell>
+          <cell r="AZ13" t="str">
+            <v>蜜蜂1、鸟1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BC13">
+            <v>1000</v>
+          </cell>
+          <cell r="BD13">
+            <v>30</v>
+          </cell>
+          <cell r="BE13" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="BF13" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BG13" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AV14" t="str">
+            <v>1_3</v>
+          </cell>
+          <cell r="AW14">
+            <v>1</v>
+          </cell>
+          <cell r="AX14">
+            <v>3</v>
+          </cell>
+          <cell r="AY14" t="str">
+            <v>群体加速</v>
+          </cell>
+          <cell r="AZ14" t="str">
+            <v>鸟2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BC14">
+            <v>1500</v>
+          </cell>
+          <cell r="BD14">
+            <v>30</v>
+          </cell>
+          <cell r="BE14" t="str">
+            <v>鸟2</v>
+          </cell>
+          <cell r="BF14" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BG14" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AV15" t="str">
+            <v>1_4</v>
+          </cell>
+          <cell r="AW15">
+            <v>1</v>
+          </cell>
+          <cell r="AX15">
+            <v>4</v>
+          </cell>
+          <cell r="AZ15" t="str">
+            <v>鸟2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BC15">
+            <v>2100</v>
+          </cell>
+          <cell r="BD15">
+            <v>30</v>
+          </cell>
+          <cell r="BE15" t="str">
+            <v>鸟2</v>
+          </cell>
+          <cell r="BF15" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BG15" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AV16" t="str">
+            <v>1_5</v>
+          </cell>
+          <cell r="AW16">
+            <v>1</v>
+          </cell>
+          <cell r="AX16">
+            <v>5</v>
+          </cell>
+          <cell r="AY16" t="str">
+            <v>BOSS-群体霸体</v>
+          </cell>
+          <cell r="AZ16" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、鸟3</v>
+          </cell>
+          <cell r="BA16" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="BB16" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="BC16">
+            <v>2600</v>
+          </cell>
+          <cell r="BD16">
+            <v>30</v>
+          </cell>
+          <cell r="BE16" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BF16" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BG16" t="str">
+            <v>鸟3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AV17" t="str">
+            <v>2_1</v>
+          </cell>
+          <cell r="AW17">
+            <v>2</v>
+          </cell>
+          <cell r="AX17">
+            <v>1</v>
+          </cell>
+          <cell r="AY17" t="str">
+            <v>高攻击</v>
+          </cell>
+          <cell r="AZ17" t="str">
+            <v>蜜蜂1、龙1、蜘蛛1</v>
+          </cell>
+          <cell r="BC17">
+            <v>500</v>
+          </cell>
+          <cell r="BD17">
+            <v>30</v>
+          </cell>
+          <cell r="BE17" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="BF17" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AV18" t="str">
+            <v>2_2</v>
+          </cell>
+          <cell r="AW18">
+            <v>2</v>
+          </cell>
+          <cell r="AX18">
+            <v>2</v>
+          </cell>
+          <cell r="AY18" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="AZ18" t="str">
+            <v>蜜蜂1、龙1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BC18">
+            <v>1000</v>
+          </cell>
+          <cell r="BD18">
+            <v>30</v>
+          </cell>
+          <cell r="BE18" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="BF18" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BG18" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AV19" t="str">
+            <v>2_3</v>
+          </cell>
+          <cell r="AW19">
+            <v>2</v>
+          </cell>
+          <cell r="AX19">
+            <v>3</v>
+          </cell>
+          <cell r="AY19" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="AZ19" t="str">
+            <v>龙2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BC19">
+            <v>1500</v>
+          </cell>
+          <cell r="BD19">
+            <v>30</v>
+          </cell>
+          <cell r="BE19" t="str">
+            <v>龙2</v>
+          </cell>
+          <cell r="BF19" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BG19" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AV20" t="str">
+            <v>2_4</v>
+          </cell>
+          <cell r="AW20">
+            <v>2</v>
+          </cell>
+          <cell r="AX20">
+            <v>4</v>
+          </cell>
+          <cell r="AY20" t="str">
+            <v>群体加攻</v>
+          </cell>
+          <cell r="AZ20" t="str">
+            <v>龙2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BC20">
+            <v>2100</v>
+          </cell>
+          <cell r="BD20">
+            <v>30</v>
+          </cell>
+          <cell r="BE20" t="str">
+            <v>龙2</v>
+          </cell>
+          <cell r="BF20" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BG20" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AV21" t="str">
+            <v>2_5</v>
+          </cell>
+          <cell r="AW21">
+            <v>2</v>
+          </cell>
+          <cell r="AX21">
+            <v>5</v>
+          </cell>
+          <cell r="AY21" t="str">
+            <v>Boss-攻击塔</v>
+          </cell>
+          <cell r="AZ21" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、龙3</v>
+          </cell>
+          <cell r="BA21" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="BB21" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="BC21">
+            <v>2600</v>
+          </cell>
+          <cell r="BD21">
+            <v>30</v>
+          </cell>
+          <cell r="BE21" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BF21" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BG21" t="str">
+            <v>龙3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AV22" t="str">
+            <v>3_1</v>
+          </cell>
+          <cell r="AW22">
+            <v>3</v>
+          </cell>
+          <cell r="AX22">
+            <v>1</v>
+          </cell>
+          <cell r="AY22" t="str">
+            <v>融化</v>
+          </cell>
+          <cell r="AZ22" t="str">
+            <v>蜜蜂1、雪人1、蜘蛛1</v>
+          </cell>
+          <cell r="BC22">
+            <v>500</v>
+          </cell>
+          <cell r="BD22">
+            <v>30</v>
+          </cell>
+          <cell r="BE22" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="BF22" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AV23" t="str">
+            <v>3_2</v>
+          </cell>
+          <cell r="AW23">
+            <v>3</v>
+          </cell>
+          <cell r="AX23">
+            <v>2</v>
+          </cell>
+          <cell r="AY23" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="AZ23" t="str">
+            <v>蜜蜂1、雪人1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BC23">
+            <v>1000</v>
+          </cell>
+          <cell r="BD23">
+            <v>30</v>
+          </cell>
+          <cell r="BE23" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="BF23" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BG23" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AV24" t="str">
+            <v>3_3</v>
+          </cell>
+          <cell r="AW24">
+            <v>3</v>
+          </cell>
+          <cell r="AX24">
+            <v>3</v>
+          </cell>
+          <cell r="AY24" t="str">
+            <v>隐身</v>
+          </cell>
+          <cell r="AZ24" t="str">
+            <v>雪人2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BC24">
+            <v>1500</v>
+          </cell>
+          <cell r="BD24">
+            <v>30</v>
+          </cell>
+          <cell r="BE24" t="str">
+            <v>雪人2</v>
+          </cell>
+          <cell r="BF24" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BG24" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AV25" t="str">
+            <v>3_4</v>
+          </cell>
+          <cell r="AW25">
+            <v>3</v>
+          </cell>
+          <cell r="AX25">
+            <v>4</v>
+          </cell>
+          <cell r="AY25" t="str">
+            <v>出场限时护盾</v>
+          </cell>
+          <cell r="AZ25" t="str">
+            <v>雪人2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BC25">
+            <v>2100</v>
+          </cell>
+          <cell r="BD25">
+            <v>30</v>
+          </cell>
+          <cell r="BE25" t="str">
+            <v>雪人2</v>
+          </cell>
+          <cell r="BF25" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BG25" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AV26" t="str">
+            <v>3_5</v>
+          </cell>
+          <cell r="AW26">
+            <v>3</v>
+          </cell>
+          <cell r="AX26">
+            <v>5</v>
+          </cell>
+          <cell r="AY26" t="str">
+            <v>BOSS-范围冰冻</v>
+          </cell>
+          <cell r="AZ26" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、雪人3</v>
+          </cell>
+          <cell r="BA26" t="str">
+            <v>火箭</v>
+          </cell>
+          <cell r="BB26" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="BC26">
+            <v>2600</v>
+          </cell>
+          <cell r="BD26">
+            <v>30</v>
+          </cell>
+          <cell r="BE26" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BF26" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BG26" t="str">
+            <v>雪人3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AV27" t="str">
+            <v>4_1</v>
+          </cell>
+          <cell r="AW27">
+            <v>4</v>
+          </cell>
+          <cell r="AX27">
+            <v>1</v>
+          </cell>
+          <cell r="AY27" t="str">
+            <v>定期锁壳减伤</v>
+          </cell>
+          <cell r="AZ27" t="str">
+            <v>蜜蜂1、乌龟1、蜘蛛1</v>
+          </cell>
+          <cell r="BC27">
+            <v>500</v>
+          </cell>
+          <cell r="BD27">
+            <v>30</v>
+          </cell>
+          <cell r="BE27" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BF27" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AV28" t="str">
+            <v>4_2</v>
+          </cell>
+          <cell r="AW28">
+            <v>4</v>
+          </cell>
+          <cell r="AX28">
+            <v>2</v>
+          </cell>
+          <cell r="AY28" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="AZ28" t="str">
+            <v>蜜蜂1、乌龟1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BC28">
+            <v>1000</v>
+          </cell>
+          <cell r="BD28">
+            <v>30</v>
+          </cell>
+          <cell r="BE28" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BF28" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BG28" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AV29" t="str">
+            <v>4_3</v>
+          </cell>
+          <cell r="AW29">
+            <v>4</v>
+          </cell>
+          <cell r="AX29">
+            <v>3</v>
+          </cell>
+          <cell r="AY29" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="AZ29" t="str">
+            <v>乌龟2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BC29">
+            <v>1500</v>
+          </cell>
+          <cell r="BD29">
+            <v>30</v>
+          </cell>
+          <cell r="BE29" t="str">
+            <v>乌龟2</v>
+          </cell>
+          <cell r="BF29" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BG29" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AV30" t="str">
+            <v>4_4</v>
+          </cell>
+          <cell r="AW30">
+            <v>4</v>
+          </cell>
+          <cell r="AX30">
+            <v>4</v>
+          </cell>
+          <cell r="AY30" t="str">
+            <v>移动时减伤且快速</v>
+          </cell>
+          <cell r="AZ30" t="str">
+            <v>乌龟2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BC30">
+            <v>2100</v>
+          </cell>
+          <cell r="BD30">
+            <v>30</v>
+          </cell>
+          <cell r="BE30" t="str">
+            <v>乌龟2</v>
+          </cell>
+          <cell r="BF30" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BG30" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AV31" t="str">
+            <v>4_5</v>
+          </cell>
+          <cell r="AW31">
+            <v>4</v>
+          </cell>
+          <cell r="AX31">
+            <v>5</v>
+          </cell>
+          <cell r="AY31" t="str">
+            <v>BOSS-范围护盾</v>
+          </cell>
+          <cell r="AZ31" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、乌龟3</v>
+          </cell>
+          <cell r="BA31" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="BB31" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="BC31">
+            <v>2600</v>
+          </cell>
+          <cell r="BD31">
+            <v>30</v>
+          </cell>
+          <cell r="BE31" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BF31" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BG31" t="str">
+            <v>乌龟3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -771,38 +3886,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="30.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="32" style="2" customWidth="1"/>
     <col min="5" max="6" width="6.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="8.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -820,16 +3936,16 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,12 +3961,12 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -877,13 +3993,13 @@
         <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,18 +4017,18 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -933,13 +4049,19 @@
         <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>50</v>
+      <c r="M5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>-1</v>
       </c>
@@ -953,22 +4075,31 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>93</v>
+      <c r="J6" s="2" t="str">
+        <f>IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_MiFeng1;Monster_MiFeng2</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;50|Tow5_1;1</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow5_1;1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>-1</v>
       </c>
@@ -982,22 +4113,31 @@
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>85</v>
+      <c r="J7" s="2" t="str">
+        <f>IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_MiFeng2;Monster_ZhiZhu1</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;80|Tow6_1;1</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow6_1;1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>-1</v>
       </c>
@@ -1011,22 +4151,31 @@
         <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_ZhiZhu1;Monster_Gui1</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;110|Tow8_1;1</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow8_1;1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>-1</v>
       </c>
@@ -1040,22 +4189,31 @@
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_ZhiZhu1;Monster_Gui1;Monster_ZhongZi1</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;150|Tow21_1;1</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow21_1;1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>-1</v>
       </c>
@@ -1069,27 +4227,36 @@
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Gui1;Monster_ZhongZi1;Monster_MiFeng3</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;200|Tow3_1;1</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow3_1;1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>27</v>
@@ -1098,27 +4265,36 @@
         <v>6</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_BianFu1;Monster_Dan1</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;260|Tow25_1;1</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow25_1;1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>-1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -1127,27 +4303,36 @@
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>85</v>
+      <c r="J12" s="2" t="str">
+        <f>IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_BianFu1;Monster_Dan2</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;330|Tow4_1;1</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow4_1;1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>-1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -1156,27 +4341,36 @@
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Dan2;Monster_Gui2</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;410|Tow10_1;1</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow10_1;1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>-1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
@@ -1185,27 +4379,36 @@
         <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Dan2;Monster_Gui2;Monster_ZhongZi2</v>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;500</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>-1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>31</v>
@@ -1214,22 +4417,31 @@
         <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Gui2;Monster_ZhongZi2;Monster_Dan3</v>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;610|Tow11_1;1</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow11_1;1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8322B7E-1F09-47E6-A33C-54BA0E4700B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BEC37A-4CEA-443A-8A24-99B03AA0E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2633,7 +2633,7 @@
             <v>龙击炮</v>
           </cell>
           <cell r="BC2">
-            <v>50</v>
+            <v>100</v>
           </cell>
           <cell r="BD2">
             <v>30</v>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="K6" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;50|Tow5_1;1</v>
+        <v>Token_Diamond;100|Tow5_1;1</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BEC37A-4CEA-443A-8A24-99B03AA0E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24E576-1D87-47A9-9074-198EF2686893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>##var</t>
   </si>
@@ -297,6 +297,126 @@
   </si>
   <si>
     <t>DropItemRule_Common_Season0_Challenge10</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge11</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge11</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge11</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge11</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge12</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge12</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge12</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge12</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge13</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge13</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge13</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge13</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge14</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge14</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge14</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge14</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge15</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge15</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge15</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge15</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge16</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge16</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge16</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge16</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge17</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge17</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge17</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge17</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge18</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge18</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge18</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge18</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge19</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge19</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge19</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge19</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge20</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge20</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season0_Challenge20</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Season0_Challenge20</t>
   </si>
 </sst>
 </file>
@@ -446,6 +566,7 @@
     <sheetNames>
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
+      <sheetName val="技能"/>
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
@@ -535,16 +656,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速单体，能应对各种情况</v>
+            <v>快速单体，2级连发，3级暴击</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>180</v>
+            <v>90</v>
           </cell>
           <cell r="I2">
-            <v>648</v>
+            <v>324</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -556,12 +677,15 @@
             <v>9</v>
           </cell>
           <cell r="M2" t="str">
-            <v>3级暴击率/爆伤</v>
+            <v>3级暴击率/爆伤/23级连发数</v>
           </cell>
           <cell r="N2">
             <v>0.15</v>
           </cell>
           <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="P2">
             <v>2</v>
           </cell>
           <cell r="R2">
@@ -594,25 +718,31 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速群体，能应对各种情况</v>
+            <v>快速群体，2级3次高爆弹，3级全高爆弹</v>
           </cell>
           <cell r="G3">
-            <v>17</v>
+            <v>25</v>
           </cell>
           <cell r="H3">
-            <v>61</v>
+            <v>54</v>
           </cell>
           <cell r="I3">
-            <v>220</v>
+            <v>324</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
           </cell>
           <cell r="K3">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="L3">
             <v>9</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>2级高爆倍率</v>
+          </cell>
+          <cell r="N3">
+            <v>3</v>
           </cell>
           <cell r="R3">
             <v>1</v>
@@ -644,7 +774,7 @@
             <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>直线群体，高级后可灼烧</v>
+            <v>直线点燃，2级扇形，3级永久点燃</v>
           </cell>
           <cell r="G4">
             <v>17</v>
@@ -659,7 +789,7 @@
             <v>0.3</v>
           </cell>
           <cell r="K4">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="L4">
             <v>9</v>
@@ -668,7 +798,7 @@
             <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
           </cell>
           <cell r="N4">
-            <v>0.5</v>
+            <v>0.3</v>
           </cell>
           <cell r="O4">
             <v>10</v>
@@ -677,7 +807,7 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.5</v>
+            <v>0.7</v>
           </cell>
           <cell r="R4">
             <v>1</v>
@@ -709,16 +839,16 @@
             <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>圆形群体</v>
+            <v>圆形群体，2级冰雾减速，3级破甲</v>
           </cell>
           <cell r="G5">
             <v>7</v>
           </cell>
           <cell r="H5">
-            <v>25</v>
+            <v>22</v>
           </cell>
           <cell r="I5">
-            <v>90</v>
+            <v>72</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -730,10 +860,16 @@
             <v>9</v>
           </cell>
           <cell r="M5" t="str">
-            <v>远处增伤率</v>
+            <v>远处增伤率/2级减速率/3级减甲价率</v>
           </cell>
           <cell r="N5">
             <v>0.06</v>
+          </cell>
+          <cell r="O5">
+            <v>0.1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.2</v>
           </cell>
           <cell r="R5">
             <v>1</v>
@@ -765,19 +901,19 @@
             <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>慢速单体，单发伤害高</v>
+            <v>慢速单体，2级2连发，3级3连发</v>
           </cell>
           <cell r="G6">
-            <v>480</v>
+            <v>600</v>
           </cell>
           <cell r="H6">
-            <v>1728</v>
+            <v>1080</v>
           </cell>
           <cell r="I6">
-            <v>3110</v>
+            <v>2592</v>
           </cell>
           <cell r="J6">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K6">
             <v>1</v>
@@ -786,10 +922,13 @@
             <v>9</v>
           </cell>
           <cell r="M6" t="str">
-            <v>3级目标</v>
+            <v>2级目标/3级目标</v>
           </cell>
           <cell r="N6">
             <v>2</v>
+          </cell>
+          <cell r="O6">
+            <v>3</v>
           </cell>
           <cell r="R6">
             <v>1</v>
@@ -821,7 +960,7 @@
             <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成，单体</v>
+            <v>高处加成，2级3次眩晕，3级2连</v>
           </cell>
           <cell r="G7">
             <v>373</v>
@@ -842,7 +981,7 @@
             <v>7.5</v>
           </cell>
           <cell r="M7" t="str">
-            <v>低处增伤率，3级目标，加成高度</v>
+            <v>低处增伤率，3级目标，加成高度，眩晕时间</v>
           </cell>
           <cell r="N7">
             <v>0.1</v>
@@ -874,25 +1013,25 @@
             <v>1</v>
           </cell>
           <cell r="C8">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D8">
             <v>100</v>
           </cell>
           <cell r="E8">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F8" t="str">
-            <v>减速</v>
+            <v>减速，2级2目标，3级3目标</v>
           </cell>
           <cell r="G8">
-            <v>33</v>
+            <v>27</v>
           </cell>
           <cell r="H8">
-            <v>118</v>
+            <v>48</v>
           </cell>
           <cell r="I8">
-            <v>427</v>
+            <v>116</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -1007,7 +1146,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速友军</v>
+            <v>加速友军，2级加攻击，3级大范围</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -1028,16 +1167,19 @@
             <v>7.5</v>
           </cell>
           <cell r="M10" t="str">
-            <v>CD减少lv1/2/3</v>
+            <v>CD减少lv1/2/3/23级加攻击</v>
           </cell>
           <cell r="N10">
             <v>0.3</v>
           </cell>
           <cell r="O10">
+            <v>0.4</v>
+          </cell>
+          <cell r="P10">
             <v>0.5</v>
           </cell>
-          <cell r="P10">
-            <v>0.6</v>
+          <cell r="Q10">
+            <v>0.2</v>
           </cell>
           <cell r="R10">
             <v>1</v>
@@ -1069,19 +1211,19 @@
             <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>单体，让敌人中毒</v>
+            <v>单体中毒，2级2目标，3级3目标</v>
           </cell>
           <cell r="G11">
-            <v>120</v>
+            <v>300</v>
           </cell>
           <cell r="H11">
-            <v>432</v>
+            <v>540</v>
           </cell>
           <cell r="I11">
-            <v>1555</v>
+            <v>1296</v>
           </cell>
           <cell r="J11">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="K11">
             <v>1</v>
@@ -1134,7 +1276,7 @@
             <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
+            <v>造成一次高额伤害，2级减速，3级眩晕，</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
@@ -1155,13 +1297,16 @@
             <v>7.5</v>
           </cell>
           <cell r="M12" t="str">
-            <v>伤害/眩晕</v>
+            <v>伤害/眩晕/2级减速率</v>
           </cell>
           <cell r="N12">
             <v>2000</v>
           </cell>
           <cell r="O12">
             <v>3</v>
+          </cell>
+          <cell r="P12">
+            <v>0.5</v>
           </cell>
           <cell r="R12">
             <v>1</v>
@@ -1184,25 +1329,25 @@
             <v>1</v>
           </cell>
           <cell r="C13">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D13">
             <v>100</v>
           </cell>
           <cell r="E13">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F13" t="str">
-            <v>攻击偷金币</v>
+            <v>攻击偷金币，2级远距离，3级偷2此</v>
           </cell>
           <cell r="G13">
-            <v>50</v>
+            <v>40</v>
           </cell>
           <cell r="H13">
-            <v>180</v>
+            <v>144</v>
           </cell>
           <cell r="I13">
-            <v>648</v>
+            <v>518</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1223,7 +1368,7 @@
             <v>4</v>
           </cell>
           <cell r="P13">
-            <v>15</v>
+            <v>8</v>
           </cell>
           <cell r="Q13">
             <v>0.5</v>
@@ -1258,19 +1403,19 @@
             <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线群体，打远处伤害高</v>
+            <v>抛物线群体，2级大范围 ，3级2连发</v>
           </cell>
           <cell r="G14">
-            <v>104</v>
+            <v>130</v>
           </cell>
           <cell r="H14">
-            <v>374</v>
+            <v>468</v>
           </cell>
           <cell r="I14">
-            <v>1347</v>
+            <v>842</v>
           </cell>
           <cell r="J14">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K14">
             <v>3</v>
@@ -1279,10 +1424,13 @@
             <v>9</v>
           </cell>
           <cell r="M14" t="str">
-            <v>远处增伤率lv1/2/3</v>
+            <v>远处增伤率lv1/2/3/3级目标数</v>
           </cell>
           <cell r="N14">
             <v>0.06</v>
+          </cell>
+          <cell r="O14">
+            <v>2</v>
           </cell>
           <cell r="R14">
             <v>1</v>
@@ -1314,19 +1462,19 @@
             <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>扇形群体，可击退敌人</v>
+            <v>扇形击退，2级远距离，3级眩晕</v>
           </cell>
           <cell r="G15">
-            <v>373</v>
+            <v>467</v>
           </cell>
           <cell r="H15">
-            <v>1342</v>
+            <v>1681</v>
           </cell>
           <cell r="I15">
-            <v>4834</v>
+            <v>6052</v>
           </cell>
           <cell r="J15">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K15">
             <v>3</v>
@@ -1373,19 +1521,19 @@
             <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>直线群体，子弹可穿透</v>
+            <v>直线穿透，2级加粗，3级超长</v>
           </cell>
           <cell r="G16">
-            <v>160</v>
+            <v>200</v>
           </cell>
           <cell r="H16">
-            <v>576</v>
+            <v>720</v>
           </cell>
           <cell r="I16">
-            <v>2073</v>
+            <v>2592</v>
           </cell>
           <cell r="J16">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K16">
             <v>3</v>
@@ -1429,34 +1577,37 @@
             <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>同时发射多弹道，可单可群</v>
+            <v>同时发射多弹道，2级加量，3级加范围</v>
           </cell>
           <cell r="G17">
-            <v>187</v>
+            <v>467</v>
           </cell>
           <cell r="H17">
-            <v>673</v>
+            <v>630</v>
           </cell>
           <cell r="I17">
-            <v>1615</v>
+            <v>2269</v>
           </cell>
           <cell r="J17">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K17">
             <v>1</v>
           </cell>
           <cell r="L17">
-            <v>9</v>
+            <v>7.5</v>
           </cell>
           <cell r="M17" t="str">
-            <v>1、2级弹药/3级弹药</v>
+            <v>1级弹药/2级弹药/3级弹药</v>
           </cell>
           <cell r="N17">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="O17">
-            <v>9</v>
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>8</v>
           </cell>
           <cell r="R17">
             <v>1</v>
@@ -1471,132 +1622,76 @@
             <v>Tow9_1</v>
           </cell>
         </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>破甲弹</v>
+          </cell>
+          <cell r="U19" t="str">
+            <v>PlayerSkill_BreakArmor</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="U20" t="str">
+            <v>PlayerSkill_IceBind</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="U21" t="str">
+            <v>PlayerSkill_TimeBarrier</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>净化药水</v>
+          </cell>
+          <cell r="U22" t="str">
+            <v>PlayerSkill_PurifyWater</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>强化子弹</v>
+          </cell>
+          <cell r="U23" t="str">
+            <v>PlayerSkill_Enhance</v>
+          </cell>
+        </row>
         <row r="24">
-          <cell r="D24" t="str">
-            <v>弩箭塔</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>快速单体，能应对各种情况</v>
+          <cell r="A24" t="str">
+            <v>雷电领域</v>
+          </cell>
+          <cell r="U24" t="str">
+            <v>PlayerSkill_Silence</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25" t="str">
-            <v>加农炮</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>快速群体，能应对各种情况</v>
+          <cell r="A25" t="str">
+            <v>哥布林召唤</v>
+          </cell>
+          <cell r="U25" t="str">
+            <v>PlayerSkill_GoblinSummon</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>直线群体，高级后可灼烧</v>
+          <cell r="A26" t="str">
+            <v>地狱烈焰</v>
+          </cell>
+          <cell r="U26" t="str">
+            <v>PlayerSkill_Hellfire</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>圆形群体</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>慢速单体，单发伤害高</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>高处加成，单体</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>冰魔塔</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>减速</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>生产金币</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>加速友军</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>单体，让敌人中毒</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>攻击偷金币</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>火箭塔</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>抛物线群体，打远处伤害高</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>扇形群体，可击退敌人</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>水晶</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>直线群体，子弹可穿透</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>同时发射多弹道，可单可群</v>
+          <cell r="A27" t="str">
+            <v>黑洞</v>
+          </cell>
+          <cell r="U27" t="str">
+            <v>PlayerSkill_Blackhole</v>
           </cell>
         </row>
       </sheetData>
@@ -1609,7 +1704,7 @@
             <v>模型id</v>
           </cell>
           <cell r="D1" t="str">
-            <v>特色</v>
+            <v>技能</v>
           </cell>
           <cell r="E1" t="str">
             <v>生命系数</v>
@@ -1670,7 +1765,7 @@
             <v>ResUnit_MiFeng2</v>
           </cell>
           <cell r="D3" t="str">
-            <v>/</v>
+            <v>挡1次伤害的护盾</v>
           </cell>
           <cell r="E3">
             <v>4</v>
@@ -1682,7 +1777,10 @@
             <v>2</v>
           </cell>
           <cell r="H3">
-            <v>1.5</v>
+            <v>1.25</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>Skill_Monster_MiFeng2,NormalAttack</v>
           </cell>
           <cell r="J3" t="str">
             <v>DeathShow_1</v>
@@ -1699,19 +1797,19 @@
             <v>ResUnit_MiFeng3</v>
           </cell>
           <cell r="D4" t="str">
-            <v>召唤</v>
+            <v>不断召唤卫兵</v>
           </cell>
           <cell r="E4">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F4">
             <v>5</v>
           </cell>
           <cell r="G4">
-            <v>1.25</v>
+            <v>0.8</v>
           </cell>
           <cell r="H4">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I4" t="str">
             <v>Skill_Monster_MiFeng3,NormalAttack</v>
@@ -1731,7 +1829,7 @@
             <v>ResUnit_BianFu1</v>
           </cell>
           <cell r="D5" t="str">
-            <v>/</v>
+            <v>miss</v>
           </cell>
           <cell r="E5">
             <v>1</v>
@@ -1744,6 +1842,9 @@
           </cell>
           <cell r="H5">
             <v>1</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Skill_Monster_BianFu1,NormalAttack</v>
           </cell>
           <cell r="J5" t="str">
             <v>DeathShow_1</v>
@@ -1760,7 +1861,7 @@
             <v>ResUnit_BianFu2</v>
           </cell>
           <cell r="D6" t="str">
-            <v>/</v>
+            <v>群体闪避</v>
           </cell>
           <cell r="E6">
             <v>4</v>
@@ -1772,7 +1873,10 @@
             <v>2</v>
           </cell>
           <cell r="H6">
-            <v>1.5</v>
+            <v>1.25</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>Skill_Monster_BianFu2,NormalAttack</v>
           </cell>
           <cell r="J6" t="str">
             <v>DeathShow_1</v>
@@ -1792,16 +1896,16 @@
             <v>/</v>
           </cell>
           <cell r="E7">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F7">
             <v>5</v>
           </cell>
           <cell r="G7">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H7">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="J7" t="str">
             <v>DeathShow_1</v>
@@ -1847,7 +1951,7 @@
             <v>ResUnit_ZhiZhu2</v>
           </cell>
           <cell r="D9" t="str">
-            <v>快速</v>
+            <v>死亡召唤小蜘蛛</v>
           </cell>
           <cell r="E9">
             <v>4</v>
@@ -1859,7 +1963,10 @@
             <v>4</v>
           </cell>
           <cell r="H9">
-            <v>1.5</v>
+            <v>1.25</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>Skill_Monster_ZhiZhu2,NormalAttack</v>
           </cell>
           <cell r="J9" t="str">
             <v>DeathShow_1</v>
@@ -1876,19 +1983,19 @@
             <v>ResUnit_ZhiZhu3</v>
           </cell>
           <cell r="D10" t="str">
-            <v>快速</v>
+            <v>/</v>
           </cell>
           <cell r="E10">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F10">
             <v>5</v>
           </cell>
           <cell r="G10">
-            <v>2.5</v>
+            <v>2</v>
           </cell>
           <cell r="H10">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="J10" t="str">
             <v>DeathShow_1</v>
@@ -1905,7 +2012,7 @@
             <v>ResUnit_ZhongZi1</v>
           </cell>
           <cell r="D11" t="str">
-            <v>治疗</v>
+            <v>自我治疗</v>
           </cell>
           <cell r="E11">
             <v>1</v>
@@ -1949,7 +2056,7 @@
             <v>2</v>
           </cell>
           <cell r="H12">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I12" t="str">
             <v>Skill_Monster_ZhongZi2,NormalAttack</v>
@@ -1972,16 +2079,16 @@
             <v>群体治疗‘</v>
           </cell>
           <cell r="E13">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F13">
             <v>5</v>
           </cell>
           <cell r="G13">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H13">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I13" t="str">
             <v>Skill_Monster_ZhongZi3,NormalAttack</v>
@@ -2045,7 +2152,7 @@
             <v>2</v>
           </cell>
           <cell r="H15">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I15" t="str">
             <v>Skill_Monster_Gui2,NormalAttack</v>
@@ -2068,16 +2175,16 @@
             <v>隐身</v>
           </cell>
           <cell r="E16">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F16">
             <v>5</v>
           </cell>
           <cell r="G16">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H16">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I16" t="str">
             <v>Skill_Monster_Gui3,NormalAttack</v>
@@ -2141,7 +2248,7 @@
             <v>2</v>
           </cell>
           <cell r="H18">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I18" t="str">
             <v>Skill_Monster_Dan2,NormalAttack</v>
@@ -2164,16 +2271,16 @@
             <v>眩晕塔</v>
           </cell>
           <cell r="E19">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F19">
             <v>5</v>
           </cell>
           <cell r="G19">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H19">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I19" t="str">
             <v>Skill_Monster_Dan3,InitiativeSkill</v>
@@ -2237,7 +2344,7 @@
             <v>2</v>
           </cell>
           <cell r="H21">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I21" t="str">
             <v>Skill_Monster_Niao2,NormalAttack</v>
@@ -2260,16 +2367,16 @@
             <v>群体霸体</v>
           </cell>
           <cell r="E22">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F22">
             <v>3</v>
           </cell>
           <cell r="G22">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H22">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I22" t="str">
             <v>Skill_Monster_Niao3,NormalAttack</v>
@@ -2333,7 +2440,7 @@
             <v>2</v>
           </cell>
           <cell r="H24">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I24" t="str">
             <v>Skill_Monster_Long2,NormalAttack</v>
@@ -2356,16 +2463,16 @@
             <v>破坏塔</v>
           </cell>
           <cell r="E25">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F25">
             <v>3</v>
           </cell>
           <cell r="G25">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H25">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I25" t="str">
             <v>Skill_Monster_Long3,InitiativeSkill</v>
@@ -2429,7 +2536,7 @@
             <v>2</v>
           </cell>
           <cell r="H27">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I27" t="str">
             <v>Skill_Monster_XueRen2,NormalAttack</v>
@@ -2452,16 +2559,16 @@
             <v>范围冰冻</v>
           </cell>
           <cell r="E28">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F28">
             <v>3</v>
           </cell>
           <cell r="G28">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H28">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I28" t="str">
             <v>Skill_Monster_XueRen3,InitiativeSkill</v>
@@ -2525,7 +2632,7 @@
             <v>2</v>
           </cell>
           <cell r="H30">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="I30" t="str">
             <v>Skill_Monster_WuGui2,NormalAttack</v>
@@ -2548,16 +2655,16 @@
             <v>群体减伤</v>
           </cell>
           <cell r="E31">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="F31">
             <v>3</v>
           </cell>
           <cell r="G31">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="H31">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="I31" t="str">
             <v>Skill_Monster_WuGui3,NormalAttack</v>
@@ -2569,1055 +2676,2004 @@
             <v>Monster_WuGui3</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>骷髅1</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>ResUnit_Skull1</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>复活1次</v>
+          </cell>
+          <cell r="E32">
+            <v>1</v>
+          </cell>
+          <cell r="F32">
+            <v>1</v>
+          </cell>
+          <cell r="G32">
+            <v>2</v>
+          </cell>
+          <cell r="H32">
+            <v>1</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Skill_Monster_Skull1,NormalAttack</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v>Monster_Skull1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>骷髅2</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>ResUnit_Skull2</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>让友军死亡后变骷髅</v>
+          </cell>
+          <cell r="E33">
+            <v>4</v>
+          </cell>
+          <cell r="F33">
+            <v>2</v>
+          </cell>
+          <cell r="G33">
+            <v>2</v>
+          </cell>
+          <cell r="H33">
+            <v>1.25</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>Skill_Monster_Skull2,NormalAttack</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>Monster_Skull2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>骷髅3</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>ResUnit_Skull3</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>不断召唤墓碑</v>
+          </cell>
+          <cell r="E34">
+            <v>32</v>
+          </cell>
+          <cell r="F34">
+            <v>5</v>
+          </cell>
+          <cell r="G34">
+            <v>0.8</v>
+          </cell>
+          <cell r="H34">
+            <v>3</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>Skill_Monster_Skull3,NormalAttack</v>
+          </cell>
+          <cell r="J34" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K34" t="str">
+            <v>Monster_Skull3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>恶灵1</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>ResUnit_Spirit1</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>释放烟雾</v>
+          </cell>
+          <cell r="E35">
+            <v>1</v>
+          </cell>
+          <cell r="F35">
+            <v>1</v>
+          </cell>
+          <cell r="G35">
+            <v>2</v>
+          </cell>
+          <cell r="H35">
+            <v>1</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>Skill_Monster_Spirit1,NormalAttack</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>Monster_Spirit1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>恶灵2</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>ResUnit_Spirit2</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>移动烟雾</v>
+          </cell>
+          <cell r="E36">
+            <v>4</v>
+          </cell>
+          <cell r="F36">
+            <v>2</v>
+          </cell>
+          <cell r="G36">
+            <v>2</v>
+          </cell>
+          <cell r="H36">
+            <v>1.25</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>Skill_Monster_Spirit2,NormalAttack</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>Monster_Spirit2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>恶灵3</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>ResUnit_Spirit3</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E37">
+            <v>32</v>
+          </cell>
+          <cell r="F37">
+            <v>5</v>
+          </cell>
+          <cell r="G37">
+            <v>2</v>
+          </cell>
+          <cell r="H37">
+            <v>3</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>Monster_Spirit3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>ResUnit_FireSpirit1</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>死亡自爆，点燃防御塔</v>
+          </cell>
+          <cell r="E38">
+            <v>1</v>
+          </cell>
+          <cell r="F38">
+            <v>1</v>
+          </cell>
+          <cell r="G38">
+            <v>2</v>
+          </cell>
+          <cell r="H38">
+            <v>1</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>Skill_Monster_FireSpirit1,NormalAttack</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>Monster_FireSpirit1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>火精灵2</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>ResUnit_FireSpirit2</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>丢火球，点燃防御塔</v>
+          </cell>
+          <cell r="E39">
+            <v>4</v>
+          </cell>
+          <cell r="F39">
+            <v>2</v>
+          </cell>
+          <cell r="G39">
+            <v>2</v>
+          </cell>
+          <cell r="H39">
+            <v>1.25</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>Skill_Monster_FireSpirit2,InitiativeSkill</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>Monster_FireSpirit2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>火精灵3</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>ResUnit_FireSpirit3</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>创造燃烧区域（表现异常）</v>
+          </cell>
+          <cell r="E40">
+            <v>32</v>
+          </cell>
+          <cell r="F40">
+            <v>5</v>
+          </cell>
+          <cell r="G40">
+            <v>2</v>
+          </cell>
+          <cell r="H40">
+            <v>3</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>Skill_Monster_FireSpirit3,InitiativeSkill</v>
+          </cell>
+          <cell r="J40" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K40" t="str">
+            <v>Monster_FireSpirit3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>ResUnit_StoneGolem1</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>钻地</v>
+          </cell>
+          <cell r="E41">
+            <v>1</v>
+          </cell>
+          <cell r="F41">
+            <v>1</v>
+          </cell>
+          <cell r="G41">
+            <v>2</v>
+          </cell>
+          <cell r="H41">
+            <v>1</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>Skill_Monster_StoneGolem1,NormalAttack</v>
+          </cell>
+          <cell r="J41" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K41" t="str">
+            <v>Monster_StoneGolem1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>石像2</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>ResUnit_StoneGolem2</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>冰冻光线</v>
+          </cell>
+          <cell r="E42">
+            <v>4</v>
+          </cell>
+          <cell r="F42">
+            <v>2</v>
+          </cell>
+          <cell r="G42">
+            <v>2</v>
+          </cell>
+          <cell r="H42">
+            <v>1.25</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>Skill_Monster_StoneGolem2,InitiativeSkill</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>Monster_StoneGolem2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>石像3</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>ResUnit_StoneGolem3</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>火焰冲锋治疗</v>
+          </cell>
+          <cell r="E43">
+            <v>32</v>
+          </cell>
+          <cell r="F43">
+            <v>5</v>
+          </cell>
+          <cell r="G43">
+            <v>2</v>
+          </cell>
+          <cell r="H43">
+            <v>3</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>Skill_Monster_StoneGolem3,NormalAttack</v>
+          </cell>
+          <cell r="J43" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K43" t="str">
+            <v>Monster_StoneGolem3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>ResUnit_Scorpid1</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>麻痹防御塔</v>
+          </cell>
+          <cell r="E44">
+            <v>1</v>
+          </cell>
+          <cell r="F44">
+            <v>1</v>
+          </cell>
+          <cell r="G44">
+            <v>2</v>
+          </cell>
+          <cell r="H44">
+            <v>1</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>Skill_Monster_Scorpid1,InitiativeSkill</v>
+          </cell>
+          <cell r="J44" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K44" t="str">
+            <v>Monster_Scorpid1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>麻痹蝎2</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>ResUnit_Scorpid2</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>弹射麻痹多个防御塔</v>
+          </cell>
+          <cell r="E45">
+            <v>4</v>
+          </cell>
+          <cell r="F45">
+            <v>2</v>
+          </cell>
+          <cell r="G45">
+            <v>2</v>
+          </cell>
+          <cell r="H45">
+            <v>1.25</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v>Skill_Monster_Scorpid2,InitiativeSkill</v>
+          </cell>
+          <cell r="J45" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K45" t="str">
+            <v>Monster_Scorpid2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>麻痹蝎3</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>ResUnit_Scorpid3</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E46">
+            <v>32</v>
+          </cell>
+          <cell r="F46">
+            <v>5</v>
+          </cell>
+          <cell r="G46">
+            <v>2</v>
+          </cell>
+          <cell r="H46">
+            <v>3</v>
+          </cell>
+          <cell r="J46" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K46" t="str">
+            <v>Monster_Scorpid3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>小恶魔1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>ResUnit_Imp1</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>闪现</v>
+          </cell>
+          <cell r="E47">
+            <v>1</v>
+          </cell>
+          <cell r="F47">
+            <v>1</v>
+          </cell>
+          <cell r="G47">
+            <v>2</v>
+          </cell>
+          <cell r="H47">
+            <v>1</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>Skill_Monster_Imp1,NormalAttack</v>
+          </cell>
+          <cell r="J47" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>Monster_Imp1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>小恶魔2</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>ResUnit_Imp2</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>群体闪现</v>
+          </cell>
+          <cell r="E48">
+            <v>4</v>
+          </cell>
+          <cell r="F48">
+            <v>2</v>
+          </cell>
+          <cell r="G48">
+            <v>2</v>
+          </cell>
+          <cell r="H48">
+            <v>1.25</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>Skill_Monster_Imp2,NormalAttack</v>
+          </cell>
+          <cell r="J48" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K48" t="str">
+            <v>Monster_Imp2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>小恶魔3</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>ResUnit_Imp3</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>召唤强力单位</v>
+          </cell>
+          <cell r="E49">
+            <v>32</v>
+          </cell>
+          <cell r="F49">
+            <v>5</v>
+          </cell>
+          <cell r="G49">
+            <v>0.8</v>
+          </cell>
+          <cell r="H49">
+            <v>3</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>Skill_Monster_Imp3,NormalAttack</v>
+          </cell>
+          <cell r="J49" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K49" t="str">
+            <v>Monster_Imp3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>墓碑1</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>ResUnit_Tombstone1</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>召唤骷髅</v>
+          </cell>
+          <cell r="E50">
+            <v>4</v>
+          </cell>
+          <cell r="F50">
+            <v>2</v>
+          </cell>
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>1</v>
+          </cell>
+          <cell r="J50" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>Monster_Tombstone</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>召唤蜜蜂1</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>ResUnit_Bee1</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="E51">
+            <v>1</v>
+          </cell>
+          <cell r="F51">
+            <v>1</v>
+          </cell>
+          <cell r="G51">
+            <v>2</v>
+          </cell>
+          <cell r="H51">
+            <v>1</v>
+          </cell>
+          <cell r="J51" t="str">
+            <v>DeathShow_1</v>
+          </cell>
+          <cell r="K51" t="str">
+            <v>Monster_Bee1</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="1">
-          <cell r="AV1" t="str">
+          <cell r="BH1" t="str">
             <v>索引</v>
           </cell>
-          <cell r="AW1" t="str">
+          <cell r="BI1" t="str">
             <v>赛季</v>
           </cell>
-          <cell r="AX1" t="str">
+          <cell r="BJ1" t="str">
             <v>关卡</v>
           </cell>
-          <cell r="AY1" t="str">
-            <v>特殊怪</v>
-          </cell>
-          <cell r="AZ1" t="str">
+          <cell r="BK1" t="str">
+            <v>技巧</v>
+          </cell>
+          <cell r="BL1" t="str">
             <v>怪物</v>
           </cell>
-          <cell r="BA1" t="str">
+          <cell r="BM1" t="str">
             <v>新内容/技巧</v>
           </cell>
-          <cell r="BB1" t="str">
+          <cell r="BN1" t="str">
             <v>奖励塔</v>
           </cell>
-          <cell r="BC1" t="str">
+          <cell r="BO1" t="str">
             <v>首次奖励钻石</v>
           </cell>
-          <cell r="BD1" t="str">
+          <cell r="BP1" t="str">
             <v>重复奖励钻石</v>
           </cell>
-          <cell r="BE1" t="str">
+          <cell r="BQ1" t="str">
             <v>展示怪物1</v>
           </cell>
-          <cell r="BF1" t="str">
+          <cell r="BR1" t="str">
             <v>展示怪物2</v>
           </cell>
-          <cell r="BG1" t="str">
+          <cell r="BS1" t="str">
             <v>展示怪物3</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="AV2" t="str">
+          <cell r="BH2" t="str">
             <v>0_1</v>
           </cell>
-          <cell r="AW2">
+          <cell r="BI2">
             <v>0</v>
           </cell>
-          <cell r="AX2">
-            <v>1</v>
-          </cell>
-          <cell r="AY2" t="str">
-            <v>肉</v>
-          </cell>
-          <cell r="AZ2" t="str">
-            <v>蜜蜂1、蜜蜂2</v>
-          </cell>
-          <cell r="BA2" t="str">
+          <cell r="BJ2">
+            <v>1</v>
+          </cell>
+          <cell r="BK2" t="str">
+            <v>放塔</v>
+          </cell>
+          <cell r="BL2" t="str">
+            <v xml:space="preserve">蜜蜂1                  </v>
+          </cell>
+          <cell r="BM2" t="str">
             <v>弩箭塔、加农炮、冰魔塔</v>
           </cell>
-          <cell r="BB2" t="str">
+          <cell r="BN2" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="BO2">
+            <v>100</v>
+          </cell>
+          <cell r="BP2">
+            <v>30</v>
+          </cell>
+          <cell r="BQ2" t="str">
+            <v>蜜蜂1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="BH3" t="str">
+            <v>0_2</v>
+          </cell>
+          <cell r="BI3">
+            <v>0</v>
+          </cell>
+          <cell r="BJ3">
+            <v>2</v>
+          </cell>
+          <cell r="BK3" t="str">
+            <v>技能</v>
+          </cell>
+          <cell r="BL3" t="str">
+            <v xml:space="preserve">蜜蜂1   鬼1               </v>
+          </cell>
+          <cell r="BN3" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="BO3">
+            <v>80</v>
+          </cell>
+          <cell r="BP3">
+            <v>30</v>
+          </cell>
+          <cell r="BQ3" t="str">
+            <v>蜜蜂1</v>
+          </cell>
+          <cell r="BR3" t="str">
+            <v>鬼1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="BH4" t="str">
+            <v>0_3</v>
+          </cell>
+          <cell r="BI4">
+            <v>0</v>
+          </cell>
+          <cell r="BJ4">
+            <v>3</v>
+          </cell>
+          <cell r="BK4" t="str">
+            <v>升级</v>
+          </cell>
+          <cell r="BL4" t="str">
+            <v xml:space="preserve">蜜蜂1   鬼1   种子1   蝙蝠1         </v>
+          </cell>
+          <cell r="BM4" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="BN4" t="str">
             <v>龙击炮</v>
           </cell>
-          <cell r="BC2">
+          <cell r="BO4">
+            <v>110</v>
+          </cell>
+          <cell r="BP4">
+            <v>30</v>
+          </cell>
+          <cell r="BQ4" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BR4" t="str">
+            <v>种子1</v>
+          </cell>
+          <cell r="BS4" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BH5" t="str">
+            <v>0_4</v>
+          </cell>
+          <cell r="BI5">
+            <v>0</v>
+          </cell>
+          <cell r="BJ5">
+            <v>4</v>
+          </cell>
+          <cell r="BK5" t="str">
+            <v>拖动</v>
+          </cell>
+          <cell r="BL5" t="str">
+            <v xml:space="preserve">鬼1   种子1   蝙蝠1   蜘蛛1         </v>
+          </cell>
+          <cell r="BO5">
+            <v>150</v>
+          </cell>
+          <cell r="BP5">
+            <v>30</v>
+          </cell>
+          <cell r="BQ5" t="str">
+            <v>种子1</v>
+          </cell>
+          <cell r="BR5" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BS5" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BH6" t="str">
+            <v>0_5</v>
+          </cell>
+          <cell r="BI6">
+            <v>0</v>
+          </cell>
+          <cell r="BJ6">
+            <v>5</v>
+          </cell>
+          <cell r="BK6" t="str">
+            <v>回收</v>
+          </cell>
+          <cell r="BL6" t="str">
+            <v xml:space="preserve">种子1   蝙蝠1   蜘蛛1   蛋1         </v>
+          </cell>
+          <cell r="BM6" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="BO6">
+            <v>200</v>
+          </cell>
+          <cell r="BP6">
+            <v>30</v>
+          </cell>
+          <cell r="BQ6" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BR6" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BS6" t="str">
+            <v>蛋1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BH7" t="str">
+            <v>0_6</v>
+          </cell>
+          <cell r="BI7">
+            <v>0</v>
+          </cell>
+          <cell r="BJ7">
+            <v>6</v>
+          </cell>
+          <cell r="BK7" t="str">
+            <v>精准击杀</v>
+          </cell>
+          <cell r="BL7" t="str">
+            <v>种子1   蝙蝠1   蜘蛛1   蛋1      蜜蜂2   蜜蜂3</v>
+          </cell>
+          <cell r="BM7" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="BN7" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="BO7">
+            <v>260</v>
+          </cell>
+          <cell r="BP7">
+            <v>30</v>
+          </cell>
+          <cell r="BQ7" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BR7" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BS7" t="str">
+            <v>蜜蜂3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BH8" t="str">
+            <v>0_7</v>
+          </cell>
+          <cell r="BI8">
+            <v>0</v>
+          </cell>
+          <cell r="BJ8">
+            <v>7</v>
+          </cell>
+          <cell r="BK8" t="str">
+            <v>新玩法</v>
+          </cell>
+          <cell r="BL8" t="str">
+            <v xml:space="preserve">蜘蛛1   蛋1   蜜蜂2   火精灵1         </v>
+          </cell>
+          <cell r="BM8" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="BO8">
+            <v>330</v>
+          </cell>
+          <cell r="BP8">
+            <v>30</v>
+          </cell>
+          <cell r="BQ8" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BR8" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BS8" t="str">
+            <v>火精灵1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BH9" t="str">
+            <v>0_8</v>
+          </cell>
+          <cell r="BI9">
+            <v>0</v>
+          </cell>
+          <cell r="BJ9">
+            <v>8</v>
+          </cell>
+          <cell r="BK9" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL9" t="str">
+            <v xml:space="preserve">蛋1   蜜蜂2   火精灵1   骷髅1         </v>
+          </cell>
+          <cell r="BM9" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="BO9">
+            <v>410</v>
+          </cell>
+          <cell r="BP9">
+            <v>30</v>
+          </cell>
+          <cell r="BQ9" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BR9" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="BS9" t="str">
+            <v>骷髅1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BH10" t="str">
+            <v>0_9</v>
+          </cell>
+          <cell r="BI10">
+            <v>0</v>
+          </cell>
+          <cell r="BJ10">
+            <v>9</v>
+          </cell>
+          <cell r="BK10" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL10" t="str">
+            <v xml:space="preserve">蜜蜂2   火精灵1   骷髅1   麻痹蝎1         </v>
+          </cell>
+          <cell r="BM10" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="BN10" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="BO10">
+            <v>500</v>
+          </cell>
+          <cell r="BP10">
+            <v>30</v>
+          </cell>
+          <cell r="BQ10" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="BR10" t="str">
+            <v>骷髅1</v>
+          </cell>
+          <cell r="BS10" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BH11" t="str">
+            <v>0_10</v>
+          </cell>
+          <cell r="BI11">
+            <v>0</v>
+          </cell>
+          <cell r="BJ11">
+            <v>10</v>
+          </cell>
+          <cell r="BK11" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL11" t="str">
+            <v xml:space="preserve">火精灵1   骷髅1   麻痹蝎1   蜘蛛2         </v>
+          </cell>
+          <cell r="BM11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="BO11">
+            <v>610</v>
+          </cell>
+          <cell r="BP11">
+            <v>30</v>
+          </cell>
+          <cell r="BQ11" t="str">
+            <v>骷髅1</v>
+          </cell>
+          <cell r="BR11" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="BS11" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BH12" t="str">
+            <v>0_11</v>
+          </cell>
+          <cell r="BI12">
+            <v>0</v>
+          </cell>
+          <cell r="BJ12">
+            <v>11</v>
+          </cell>
+          <cell r="BK12" t="str">
+            <v>新玩法</v>
+          </cell>
+          <cell r="BL12" t="str">
+            <v xml:space="preserve">骷髅1   麻痹蝎1   蜘蛛2   恶灵1         </v>
+          </cell>
+          <cell r="BO12">
             <v>100</v>
           </cell>
-          <cell r="BD2">
+          <cell r="BP12">
             <v>30</v>
           </cell>
-          <cell r="BE2" t="str">
+          <cell r="BQ12" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="BR12" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+          <cell r="BS12" t="str">
+            <v>恶灵1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BH13" t="str">
+            <v>0_12</v>
+          </cell>
+          <cell r="BI13">
+            <v>0</v>
+          </cell>
+          <cell r="BJ13">
+            <v>12</v>
+          </cell>
+          <cell r="BK13" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL13" t="str">
+            <v>骷髅1   麻痹蝎1   蜘蛛2   恶灵1      蝙蝠2   骷髅3</v>
+          </cell>
+          <cell r="BN13" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="BO13">
+            <v>80</v>
+          </cell>
+          <cell r="BP13">
+            <v>30</v>
+          </cell>
+          <cell r="BQ13" t="str">
+            <v>恶灵1</v>
+          </cell>
+          <cell r="BR13" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="BS13" t="str">
+            <v>骷髅3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BH14" t="str">
+            <v>0_13</v>
+          </cell>
+          <cell r="BI14">
+            <v>0</v>
+          </cell>
+          <cell r="BJ14">
+            <v>13</v>
+          </cell>
+          <cell r="BK14" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL14" t="str">
+            <v xml:space="preserve">蜘蛛2   恶灵1   蝙蝠2   蛋2         </v>
+          </cell>
+          <cell r="BO14">
+            <v>110</v>
+          </cell>
+          <cell r="BP14">
+            <v>30</v>
+          </cell>
+          <cell r="BQ14" t="str">
+            <v>恶灵1</v>
+          </cell>
+          <cell r="BR14" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="BS14" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BH15" t="str">
+            <v>0_14</v>
+          </cell>
+          <cell r="BI15">
+            <v>0</v>
+          </cell>
+          <cell r="BJ15">
+            <v>14</v>
+          </cell>
+          <cell r="BK15" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL15" t="str">
+            <v xml:space="preserve">恶灵1   蝙蝠2   蛋2   石像1         </v>
+          </cell>
+          <cell r="BO15">
+            <v>150</v>
+          </cell>
+          <cell r="BP15">
+            <v>30</v>
+          </cell>
+          <cell r="BQ15" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="BR15" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BS15" t="str">
+            <v>石像1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BH16" t="str">
+            <v>0_15</v>
+          </cell>
+          <cell r="BI16">
+            <v>0</v>
+          </cell>
+          <cell r="BJ16">
+            <v>15</v>
+          </cell>
+          <cell r="BK16" t="str">
+            <v>玩法变难</v>
+          </cell>
+          <cell r="BL16" t="str">
+            <v xml:space="preserve">蝙蝠2   蛋2   石像1   鬼2         </v>
+          </cell>
+          <cell r="BN16" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="BO16">
+            <v>200</v>
+          </cell>
+          <cell r="BP16">
+            <v>30</v>
+          </cell>
+          <cell r="BQ16" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BR16" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="BS16" t="str">
+            <v>鬼2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BH17" t="str">
+            <v>0_16</v>
+          </cell>
+          <cell r="BI17">
+            <v>0</v>
+          </cell>
+          <cell r="BJ17">
+            <v>16</v>
+          </cell>
+          <cell r="BK17" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL17" t="str">
+            <v xml:space="preserve">蛋2   石像1   鬼2   麻痹蝎2         </v>
+          </cell>
+          <cell r="BO17">
+            <v>260</v>
+          </cell>
+          <cell r="BP17">
+            <v>30</v>
+          </cell>
+          <cell r="BQ17" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="BR17" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BS17" t="str">
+            <v>麻痹蝎2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BH18" t="str">
+            <v>0_17</v>
+          </cell>
+          <cell r="BI18">
+            <v>0</v>
+          </cell>
+          <cell r="BJ18">
+            <v>17</v>
+          </cell>
+          <cell r="BK18" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL18" t="str">
+            <v xml:space="preserve">石像1   鬼2   麻痹蝎2   小恶魔1         </v>
+          </cell>
+          <cell r="BO18">
+            <v>330</v>
+          </cell>
+          <cell r="BP18">
+            <v>30</v>
+          </cell>
+          <cell r="BQ18" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BR18" t="str">
+            <v>麻痹蝎2</v>
+          </cell>
+          <cell r="BS18" t="str">
+            <v>小恶魔1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BH19" t="str">
+            <v>0_18</v>
+          </cell>
+          <cell r="BI19">
+            <v>0</v>
+          </cell>
+          <cell r="BJ19">
+            <v>18</v>
+          </cell>
+          <cell r="BK19" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL19" t="str">
+            <v xml:space="preserve">鬼2   麻痹蝎2   小恶魔1   石像2         </v>
+          </cell>
+          <cell r="BO19">
+            <v>410</v>
+          </cell>
+          <cell r="BP19">
+            <v>30</v>
+          </cell>
+          <cell r="BQ19" t="str">
+            <v>麻痹蝎2</v>
+          </cell>
+          <cell r="BR19" t="str">
+            <v>小恶魔1</v>
+          </cell>
+          <cell r="BS19" t="str">
+            <v>石像2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BH20" t="str">
+            <v>0_19</v>
+          </cell>
+          <cell r="BI20">
+            <v>0</v>
+          </cell>
+          <cell r="BJ20">
+            <v>19</v>
+          </cell>
+          <cell r="BK20" t="str">
+            <v>全玩法</v>
+          </cell>
+          <cell r="BL20" t="str">
+            <v xml:space="preserve">麻痹蝎2   小恶魔1   石像2   恶灵2         </v>
+          </cell>
+          <cell r="BO20">
+            <v>500</v>
+          </cell>
+          <cell r="BP20">
+            <v>30</v>
+          </cell>
+          <cell r="BQ20" t="str">
+            <v>小恶魔1</v>
+          </cell>
+          <cell r="BR20" t="str">
+            <v>石像2</v>
+          </cell>
+          <cell r="BS20" t="str">
+            <v>恶灵2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BH21" t="str">
+            <v>0_20</v>
+          </cell>
+          <cell r="BI21">
+            <v>0</v>
+          </cell>
+          <cell r="BJ21">
+            <v>20</v>
+          </cell>
+          <cell r="BK21" t="str">
+            <v>全玩法</v>
+          </cell>
+          <cell r="BL21" t="str">
+            <v>麻痹蝎2   小恶魔1   石像2   恶灵2      种子2   小恶魔3</v>
+          </cell>
+          <cell r="BN21" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="BO21">
+            <v>610</v>
+          </cell>
+          <cell r="BP21">
+            <v>30</v>
+          </cell>
+          <cell r="BQ21" t="str">
+            <v>恶灵2</v>
+          </cell>
+          <cell r="BR21" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BS21" t="str">
+            <v>小恶魔3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BH23" t="str">
+            <v>1_1</v>
+          </cell>
+          <cell r="BI23">
+            <v>1</v>
+          </cell>
+          <cell r="BJ23">
+            <v>1</v>
+          </cell>
+          <cell r="BK23" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="BL23" t="str">
+            <v xml:space="preserve">蝙蝠1   蜘蛛1   鸟1   石像1         </v>
+          </cell>
+          <cell r="BO23">
+            <v>500</v>
+          </cell>
+          <cell r="BP23">
+            <v>30</v>
+          </cell>
+          <cell r="BQ23" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BR23" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BS23" t="str">
+            <v>鸟1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BH24" t="str">
+            <v>1_2</v>
+          </cell>
+          <cell r="BI24">
+            <v>1</v>
+          </cell>
+          <cell r="BJ24">
+            <v>2</v>
+          </cell>
+          <cell r="BL24" t="str">
+            <v xml:space="preserve">蜘蛛1   鸟1   石像1   小恶魔1         </v>
+          </cell>
+          <cell r="BO24">
+            <v>1000</v>
+          </cell>
+          <cell r="BP24">
+            <v>30</v>
+          </cell>
+          <cell r="BQ24" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BR24" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="BS24" t="str">
+            <v>石像1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BH25" t="str">
+            <v>1_3</v>
+          </cell>
+          <cell r="BI25">
+            <v>1</v>
+          </cell>
+          <cell r="BJ25">
+            <v>3</v>
+          </cell>
+          <cell r="BK25" t="str">
+            <v>群体加速</v>
+          </cell>
+          <cell r="BL25" t="str">
+            <v xml:space="preserve">鸟1   石像1   小恶魔1   恶灵1         </v>
+          </cell>
+          <cell r="BO25">
+            <v>1500</v>
+          </cell>
+          <cell r="BP25">
+            <v>30</v>
+          </cell>
+          <cell r="BQ25" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="BR25" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="BS25" t="str">
+            <v>小恶魔1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BH26" t="str">
+            <v>1_4</v>
+          </cell>
+          <cell r="BI26">
+            <v>1</v>
+          </cell>
+          <cell r="BJ26">
+            <v>4</v>
+          </cell>
+          <cell r="BL26" t="str">
+            <v>鸟1   石像1   小恶魔1   恶灵2      鸟2   石像3</v>
+          </cell>
+          <cell r="BO26">
+            <v>2100</v>
+          </cell>
+          <cell r="BP26">
+            <v>30</v>
+          </cell>
+          <cell r="BQ26" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="BR26" t="str">
+            <v>小恶魔1</v>
+          </cell>
+          <cell r="BS26" t="str">
+            <v>恶灵1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BH27" t="str">
+            <v>1_5</v>
+          </cell>
+          <cell r="BI27">
+            <v>1</v>
+          </cell>
+          <cell r="BJ27">
+            <v>5</v>
+          </cell>
+          <cell r="BK27" t="str">
+            <v>BOSS-群体霸体</v>
+          </cell>
+          <cell r="BL27" t="str">
+            <v xml:space="preserve">种子1   蜜蜂1   龙1   麻痹蝎1         </v>
+          </cell>
+          <cell r="BN27" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="BO27">
+            <v>2600</v>
+          </cell>
+          <cell r="BP27">
+            <v>30</v>
+          </cell>
+          <cell r="BQ27" t="str">
+            <v>恶灵2</v>
+          </cell>
+          <cell r="BR27" t="str">
+            <v>鸟2</v>
+          </cell>
+          <cell r="BS27" t="str">
+            <v>石像3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BH28" t="str">
+            <v>2_1</v>
+          </cell>
+          <cell r="BI28">
+            <v>2</v>
+          </cell>
+          <cell r="BJ28">
+            <v>1</v>
+          </cell>
+          <cell r="BK28" t="str">
+            <v>高攻击</v>
+          </cell>
+          <cell r="BL28" t="str">
+            <v xml:space="preserve">蜜蜂1   龙1   麻痹蝎1   蛋2         </v>
+          </cell>
+          <cell r="BO28">
+            <v>500</v>
+          </cell>
+          <cell r="BP28">
+            <v>30</v>
+          </cell>
+          <cell r="BQ28" t="str">
             <v>蜜蜂1</v>
           </cell>
-          <cell r="BF2" t="str">
+          <cell r="BR28" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="BS28" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BH29" t="str">
+            <v>2_2</v>
+          </cell>
+          <cell r="BI29">
+            <v>2</v>
+          </cell>
+          <cell r="BJ29">
+            <v>2</v>
+          </cell>
+          <cell r="BK29" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="BL29" t="str">
+            <v xml:space="preserve">龙1   麻痹蝎1   蛋2   石像2         </v>
+          </cell>
+          <cell r="BO29">
+            <v>1000</v>
+          </cell>
+          <cell r="BP29">
+            <v>30</v>
+          </cell>
+          <cell r="BQ29" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="BR29" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="BS29" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BH30" t="str">
+            <v>2_3</v>
+          </cell>
+          <cell r="BI30">
+            <v>2</v>
+          </cell>
+          <cell r="BJ30">
+            <v>3</v>
+          </cell>
+          <cell r="BK30" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="BL30" t="str">
+            <v xml:space="preserve">麻痹蝎1   蛋2   石像2   鬼2         </v>
+          </cell>
+          <cell r="BO30">
+            <v>1500</v>
+          </cell>
+          <cell r="BP30">
+            <v>30</v>
+          </cell>
+          <cell r="BQ30" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="BR30" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BS30" t="str">
+            <v>石像2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="BH31" t="str">
+            <v>2_4</v>
+          </cell>
+          <cell r="BI31">
+            <v>2</v>
+          </cell>
+          <cell r="BJ31">
+            <v>4</v>
+          </cell>
+          <cell r="BK31" t="str">
+            <v>群体加攻</v>
+          </cell>
+          <cell r="BL31" t="str">
+            <v>麻痹蝎1   蛋2   石像2   小恶魔2      火精灵2   龙3</v>
+          </cell>
+          <cell r="BO31">
+            <v>2100</v>
+          </cell>
+          <cell r="BP31">
+            <v>30</v>
+          </cell>
+          <cell r="BQ31" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BR31" t="str">
+            <v>石像2</v>
+          </cell>
+          <cell r="BS31" t="str">
+            <v>鬼2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="BH32" t="str">
+            <v>2_5</v>
+          </cell>
+          <cell r="BI32">
+            <v>2</v>
+          </cell>
+          <cell r="BJ32">
+            <v>5</v>
+          </cell>
+          <cell r="BK32" t="str">
+            <v>Boss-攻击塔</v>
+          </cell>
+          <cell r="BL32" t="str">
+            <v xml:space="preserve">蜜蜂1   蝙蝠1   蜘蛛1   雪人1         </v>
+          </cell>
+          <cell r="BN32" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="BO32">
+            <v>2600</v>
+          </cell>
+          <cell r="BP32">
+            <v>30</v>
+          </cell>
+          <cell r="BQ32" t="str">
+            <v>小恶魔2</v>
+          </cell>
+          <cell r="BR32" t="str">
+            <v>火精灵2</v>
+          </cell>
+          <cell r="BS32" t="str">
+            <v>龙3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="BH33" t="str">
+            <v>3_1</v>
+          </cell>
+          <cell r="BI33">
+            <v>3</v>
+          </cell>
+          <cell r="BJ33">
+            <v>1</v>
+          </cell>
+          <cell r="BK33" t="str">
+            <v>融化</v>
+          </cell>
+          <cell r="BL33" t="str">
+            <v xml:space="preserve">蝙蝠1   蜘蛛1   雪人1   蜘蛛2         </v>
+          </cell>
+          <cell r="BO33">
+            <v>500</v>
+          </cell>
+          <cell r="BP33">
+            <v>30</v>
+          </cell>
+          <cell r="BQ33" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BR33" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BS33" t="str">
+            <v>雪人1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="BH34" t="str">
+            <v>3_2</v>
+          </cell>
+          <cell r="BI34">
+            <v>3</v>
+          </cell>
+          <cell r="BJ34">
+            <v>2</v>
+          </cell>
+          <cell r="BK34" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="BL34" t="str">
+            <v xml:space="preserve">蜘蛛1   雪人1   蜘蛛2   骷髅2         </v>
+          </cell>
+          <cell r="BO34">
+            <v>1000</v>
+          </cell>
+          <cell r="BP34">
+            <v>30</v>
+          </cell>
+          <cell r="BQ34" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BR34" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="BS34" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="BH35" t="str">
+            <v>3_3</v>
+          </cell>
+          <cell r="BI35">
+            <v>3</v>
+          </cell>
+          <cell r="BJ35">
+            <v>3</v>
+          </cell>
+          <cell r="BK35" t="str">
+            <v>隐身</v>
+          </cell>
+          <cell r="BL35" t="str">
+            <v xml:space="preserve">雪人1   蜘蛛2   骷髅2   恶灵1         </v>
+          </cell>
+          <cell r="BO35">
+            <v>1500</v>
+          </cell>
+          <cell r="BP35">
+            <v>30</v>
+          </cell>
+          <cell r="BQ35" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="BR35" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+          <cell r="BS35" t="str">
+            <v>骷髅2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="BH36" t="str">
+            <v>3_4</v>
+          </cell>
+          <cell r="BI36">
+            <v>3</v>
+          </cell>
+          <cell r="BJ36">
+            <v>4</v>
+          </cell>
+          <cell r="BK36" t="str">
+            <v>出场限时护盾</v>
+          </cell>
+          <cell r="BL36" t="str">
+            <v>雪人1   蜘蛛2   骷髅2   恶灵2      雪人2   雪人3</v>
+          </cell>
+          <cell r="BO36">
+            <v>2100</v>
+          </cell>
+          <cell r="BP36">
+            <v>30</v>
+          </cell>
+          <cell r="BQ36" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+          <cell r="BR36" t="str">
+            <v>骷髅2</v>
+          </cell>
+          <cell r="BS36" t="str">
+            <v>恶灵1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BH37" t="str">
+            <v>3_5</v>
+          </cell>
+          <cell r="BI37">
+            <v>3</v>
+          </cell>
+          <cell r="BJ37">
+            <v>5</v>
+          </cell>
+          <cell r="BK37" t="str">
+            <v>BOSS-范围冰冻</v>
+          </cell>
+          <cell r="BL37" t="str">
+            <v xml:space="preserve">蝙蝠1   火精灵1   鬼1   乌龟1         </v>
+          </cell>
+          <cell r="BN37" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="BO37">
+            <v>2600</v>
+          </cell>
+          <cell r="BP37">
+            <v>30</v>
+          </cell>
+          <cell r="BQ37" t="str">
+            <v>恶灵2</v>
+          </cell>
+          <cell r="BR37" t="str">
+            <v>雪人2</v>
+          </cell>
+          <cell r="BS37" t="str">
+            <v>雪人3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="BH38" t="str">
+            <v>4_1</v>
+          </cell>
+          <cell r="BI38">
+            <v>4</v>
+          </cell>
+          <cell r="BJ38">
+            <v>1</v>
+          </cell>
+          <cell r="BK38" t="str">
+            <v>定期锁壳减伤</v>
+          </cell>
+          <cell r="BL38" t="str">
+            <v xml:space="preserve">火精灵1   鬼1   乌龟1   蜜蜂2         </v>
+          </cell>
+          <cell r="BO38">
+            <v>500</v>
+          </cell>
+          <cell r="BP38">
+            <v>30</v>
+          </cell>
+          <cell r="BQ38" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="BR38" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BS38" t="str">
+            <v>乌龟1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BH39" t="str">
+            <v>4_2</v>
+          </cell>
+          <cell r="BI39">
+            <v>4</v>
+          </cell>
+          <cell r="BJ39">
+            <v>2</v>
+          </cell>
+          <cell r="BK39" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="BL39" t="str">
+            <v xml:space="preserve">鬼1   乌龟1   蜜蜂2   乌龟2         </v>
+          </cell>
+          <cell r="BO39">
+            <v>1000</v>
+          </cell>
+          <cell r="BP39">
+            <v>30</v>
+          </cell>
+          <cell r="BQ39" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BR39" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BS39" t="str">
             <v>蜜蜂2</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="AV3" t="str">
-            <v>0_2</v>
-          </cell>
-          <cell r="AW3">
-            <v>0</v>
-          </cell>
-          <cell r="AX3">
-            <v>2</v>
-          </cell>
-          <cell r="AY3" t="str">
-            <v>快速</v>
-          </cell>
-          <cell r="AZ3" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1</v>
-          </cell>
-          <cell r="BA3" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="BB3" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="BC3">
-            <v>80</v>
-          </cell>
-          <cell r="BD3">
+        <row r="40">
+          <cell r="BH40" t="str">
+            <v>4_3</v>
+          </cell>
+          <cell r="BI40">
+            <v>4</v>
+          </cell>
+          <cell r="BJ40">
+            <v>3</v>
+          </cell>
+          <cell r="BK40" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="BL40" t="str">
+            <v xml:space="preserve">乌龟1   蜜蜂2   乌龟2   鬼2         </v>
+          </cell>
+          <cell r="BO40">
+            <v>1500</v>
+          </cell>
+          <cell r="BP40">
             <v>30</v>
           </cell>
-          <cell r="BE3" t="str">
+          <cell r="BQ40" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BR40" t="str">
             <v>蜜蜂2</v>
           </cell>
-          <cell r="BF3" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AV4" t="str">
-            <v>0_3</v>
-          </cell>
-          <cell r="AW4">
-            <v>0</v>
-          </cell>
-          <cell r="AX4">
-            <v>3</v>
-          </cell>
-          <cell r="AY4" t="str">
-            <v>隐身</v>
-          </cell>
-          <cell r="AZ4" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1</v>
-          </cell>
-          <cell r="BA4" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="BB4" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="BC4">
-            <v>110</v>
-          </cell>
-          <cell r="BD4">
+          <cell r="BS40" t="str">
+            <v>乌龟2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="BH41" t="str">
+            <v>4_4</v>
+          </cell>
+          <cell r="BI41">
+            <v>4</v>
+          </cell>
+          <cell r="BJ41">
+            <v>4</v>
+          </cell>
+          <cell r="BK41" t="str">
+            <v>移动时减伤且快速</v>
+          </cell>
+          <cell r="BL41" t="str">
+            <v>乌龟1   蜜蜂2   乌龟2   小恶魔2      种子2   乌龟3</v>
+          </cell>
+          <cell r="BO41">
+            <v>2100</v>
+          </cell>
+          <cell r="BP41">
             <v>30</v>
           </cell>
-          <cell r="BE4" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-          <cell r="BF4" t="str">
-            <v>鬼1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AV5" t="str">
-            <v>0_4</v>
-          </cell>
-          <cell r="AW5">
-            <v>0</v>
-          </cell>
-          <cell r="AX5">
+          <cell r="BQ41" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BR41" t="str">
+            <v>乌龟2</v>
+          </cell>
+          <cell r="BS41" t="str">
+            <v>鬼2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="BH42" t="str">
+            <v>4_5</v>
+          </cell>
+          <cell r="BI42">
             <v>4</v>
           </cell>
-          <cell r="AY5" t="str">
-            <v>治疗</v>
-          </cell>
-          <cell r="AZ5" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BA5" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="BB5" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="BC5">
-            <v>150</v>
-          </cell>
-          <cell r="BD5">
+          <cell r="BJ42">
+            <v>5</v>
+          </cell>
+          <cell r="BK42" t="str">
+            <v>BOSS-范围护盾</v>
+          </cell>
+          <cell r="BL42" t="str">
+            <v xml:space="preserve">                  </v>
+          </cell>
+          <cell r="BN42" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="BO42">
+            <v>2600</v>
+          </cell>
+          <cell r="BP42">
             <v>30</v>
           </cell>
-          <cell r="BE5" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-          <cell r="BF5" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG5" t="str">
-            <v>种子1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AV6" t="str">
-            <v>0_5</v>
-          </cell>
-          <cell r="AW6">
-            <v>0</v>
-          </cell>
-          <cell r="AX6">
-            <v>5</v>
-          </cell>
-          <cell r="AY6" t="str">
-            <v>Boss-召唤蜜蜂</v>
-          </cell>
-          <cell r="AZ6" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1、种子1、蜜蜂3</v>
-          </cell>
-          <cell r="BA6" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="BB6" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="BC6">
-            <v>200</v>
-          </cell>
-          <cell r="BD6">
-            <v>30</v>
-          </cell>
-          <cell r="BE6" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BF6" t="str">
-            <v>种子1</v>
-          </cell>
-          <cell r="BG6" t="str">
-            <v>蜜蜂3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AV7" t="str">
-            <v>0_6</v>
-          </cell>
-          <cell r="AW7">
-            <v>0</v>
-          </cell>
-          <cell r="AX7">
-            <v>6</v>
-          </cell>
-          <cell r="AY7" t="str">
-            <v>死亡弱化</v>
-          </cell>
-          <cell r="AZ7" t="str">
-            <v>蝙蝠1、蛋1</v>
-          </cell>
-          <cell r="BA7" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="BB7" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="BC7">
-            <v>260</v>
-          </cell>
-          <cell r="BD7">
-            <v>30</v>
-          </cell>
-          <cell r="BE7" t="str">
-            <v>蝙蝠1</v>
-          </cell>
-          <cell r="BF7" t="str">
-            <v>蛋1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AV8" t="str">
-            <v>0_7</v>
-          </cell>
-          <cell r="AW8">
-            <v>0</v>
-          </cell>
-          <cell r="AX8">
-            <v>7</v>
-          </cell>
-          <cell r="AY8" t="str">
-            <v>持续弱化</v>
-          </cell>
-          <cell r="AZ8" t="str">
-            <v>蝙蝠1、蛋1、蛋2</v>
-          </cell>
-          <cell r="BA8" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="BB8" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="BC8">
-            <v>330</v>
-          </cell>
-          <cell r="BD8">
-            <v>30</v>
-          </cell>
-          <cell r="BE8" t="str">
-            <v>蝙蝠1</v>
-          </cell>
-          <cell r="BF8" t="str">
-            <v>蛋2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AV9" t="str">
-            <v>0_8</v>
-          </cell>
-          <cell r="AW9">
-            <v>0</v>
-          </cell>
-          <cell r="AX9">
-            <v>8</v>
-          </cell>
-          <cell r="AY9" t="str">
-            <v>群体隐身</v>
-          </cell>
-          <cell r="AZ9" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BA9" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="BB9" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="BC9">
-            <v>410</v>
-          </cell>
-          <cell r="BD9">
-            <v>30</v>
-          </cell>
-          <cell r="BE9" t="str">
-            <v>蛋2</v>
-          </cell>
-          <cell r="BF9" t="str">
-            <v>鬼2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AV10" t="str">
-            <v>0_9</v>
-          </cell>
-          <cell r="AW10">
-            <v>0</v>
-          </cell>
-          <cell r="AX10">
-            <v>9</v>
-          </cell>
-          <cell r="AY10" t="str">
-            <v>群体治疗</v>
-          </cell>
-          <cell r="AZ10" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BA10" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="BC10">
-            <v>500</v>
-          </cell>
-          <cell r="BD10">
-            <v>30</v>
-          </cell>
-          <cell r="BE10" t="str">
-            <v>蛋2</v>
-          </cell>
-          <cell r="BF10" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG10" t="str">
+          <cell r="BQ42" t="str">
+            <v>小恶魔2</v>
+          </cell>
+          <cell r="BR42" t="str">
             <v>种子2</v>
           </cell>
-        </row>
-        <row r="11">
-          <cell r="AV11" t="str">
-            <v>0_10</v>
-          </cell>
-          <cell r="AW11">
-            <v>0</v>
-          </cell>
-          <cell r="AX11">
-            <v>10</v>
-          </cell>
-          <cell r="AY11" t="str">
-            <v>BOSS-眩晕1个塔</v>
-          </cell>
-          <cell r="AZ11" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、蛋3</v>
-          </cell>
-          <cell r="BA11" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="BB11" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="BC11">
-            <v>610</v>
-          </cell>
-          <cell r="BD11">
-            <v>30</v>
-          </cell>
-          <cell r="BE11" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF11" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG11" t="str">
-            <v>蛋3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AV12" t="str">
-            <v>1_1</v>
-          </cell>
-          <cell r="AW12">
-            <v>1</v>
-          </cell>
-          <cell r="AX12">
-            <v>1</v>
-          </cell>
-          <cell r="AY12" t="str">
-            <v>加速</v>
-          </cell>
-          <cell r="AZ12" t="str">
-            <v>蜜蜂1、鸟1、蜘蛛1</v>
-          </cell>
-          <cell r="BC12">
-            <v>500</v>
-          </cell>
-          <cell r="BD12">
-            <v>30</v>
-          </cell>
-          <cell r="BE12" t="str">
-            <v>鸟1</v>
-          </cell>
-          <cell r="BF12" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AV13" t="str">
-            <v>1_2</v>
-          </cell>
-          <cell r="AW13">
-            <v>1</v>
-          </cell>
-          <cell r="AX13">
-            <v>2</v>
-          </cell>
-          <cell r="AZ13" t="str">
-            <v>蜜蜂1、鸟1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC13">
-            <v>1000</v>
-          </cell>
-          <cell r="BD13">
-            <v>30</v>
-          </cell>
-          <cell r="BE13" t="str">
-            <v>鸟1</v>
-          </cell>
-          <cell r="BF13" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG13" t="str">
-            <v>种子1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AV14" t="str">
-            <v>1_3</v>
-          </cell>
-          <cell r="AW14">
-            <v>1</v>
-          </cell>
-          <cell r="AX14">
-            <v>3</v>
-          </cell>
-          <cell r="AY14" t="str">
-            <v>群体加速</v>
-          </cell>
-          <cell r="AZ14" t="str">
-            <v>鸟2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC14">
-            <v>1500</v>
-          </cell>
-          <cell r="BD14">
-            <v>30</v>
-          </cell>
-          <cell r="BE14" t="str">
-            <v>鸟2</v>
-          </cell>
-          <cell r="BF14" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG14" t="str">
-            <v>蛋2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AV15" t="str">
-            <v>1_4</v>
-          </cell>
-          <cell r="AW15">
-            <v>1</v>
-          </cell>
-          <cell r="AX15">
-            <v>4</v>
-          </cell>
-          <cell r="AZ15" t="str">
-            <v>鸟2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC15">
-            <v>2100</v>
-          </cell>
-          <cell r="BD15">
-            <v>30</v>
-          </cell>
-          <cell r="BE15" t="str">
-            <v>鸟2</v>
-          </cell>
-          <cell r="BF15" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG15" t="str">
-            <v>种子2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AV16" t="str">
-            <v>1_5</v>
-          </cell>
-          <cell r="AW16">
-            <v>1</v>
-          </cell>
-          <cell r="AX16">
-            <v>5</v>
-          </cell>
-          <cell r="AY16" t="str">
-            <v>BOSS-群体霸体</v>
-          </cell>
-          <cell r="AZ16" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、鸟3</v>
-          </cell>
-          <cell r="BA16" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="BB16" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="BC16">
-            <v>2600</v>
-          </cell>
-          <cell r="BD16">
-            <v>30</v>
-          </cell>
-          <cell r="BE16" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF16" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG16" t="str">
-            <v>鸟3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AV17" t="str">
-            <v>2_1</v>
-          </cell>
-          <cell r="AW17">
-            <v>2</v>
-          </cell>
-          <cell r="AX17">
-            <v>1</v>
-          </cell>
-          <cell r="AY17" t="str">
-            <v>高攻击</v>
-          </cell>
-          <cell r="AZ17" t="str">
-            <v>蜜蜂1、龙1、蜘蛛1</v>
-          </cell>
-          <cell r="BC17">
-            <v>500</v>
-          </cell>
-          <cell r="BD17">
-            <v>30</v>
-          </cell>
-          <cell r="BE17" t="str">
-            <v>龙1</v>
-          </cell>
-          <cell r="BF17" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AV18" t="str">
-            <v>2_2</v>
-          </cell>
-          <cell r="AW18">
-            <v>2</v>
-          </cell>
-          <cell r="AX18">
-            <v>2</v>
-          </cell>
-          <cell r="AY18" t="str">
-            <v>治疗</v>
-          </cell>
-          <cell r="AZ18" t="str">
-            <v>蜜蜂1、龙1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC18">
-            <v>1000</v>
-          </cell>
-          <cell r="BD18">
-            <v>30</v>
-          </cell>
-          <cell r="BE18" t="str">
-            <v>龙1</v>
-          </cell>
-          <cell r="BF18" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG18" t="str">
-            <v>种子1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AV19" t="str">
-            <v>2_3</v>
-          </cell>
-          <cell r="AW19">
-            <v>2</v>
-          </cell>
-          <cell r="AX19">
-            <v>3</v>
-          </cell>
-          <cell r="AY19" t="str">
-            <v>持续弱化</v>
-          </cell>
-          <cell r="AZ19" t="str">
-            <v>龙2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC19">
-            <v>1500</v>
-          </cell>
-          <cell r="BD19">
-            <v>30</v>
-          </cell>
-          <cell r="BE19" t="str">
-            <v>龙2</v>
-          </cell>
-          <cell r="BF19" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG19" t="str">
-            <v>蛋2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AV20" t="str">
-            <v>2_4</v>
-          </cell>
-          <cell r="AW20">
-            <v>2</v>
-          </cell>
-          <cell r="AX20">
-            <v>4</v>
-          </cell>
-          <cell r="AY20" t="str">
-            <v>群体加攻</v>
-          </cell>
-          <cell r="AZ20" t="str">
-            <v>龙2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC20">
-            <v>2100</v>
-          </cell>
-          <cell r="BD20">
-            <v>30</v>
-          </cell>
-          <cell r="BE20" t="str">
-            <v>龙2</v>
-          </cell>
-          <cell r="BF20" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG20" t="str">
-            <v>种子2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AV21" t="str">
-            <v>2_5</v>
-          </cell>
-          <cell r="AW21">
-            <v>2</v>
-          </cell>
-          <cell r="AX21">
-            <v>5</v>
-          </cell>
-          <cell r="AY21" t="str">
-            <v>Boss-攻击塔</v>
-          </cell>
-          <cell r="AZ21" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、龙3</v>
-          </cell>
-          <cell r="BA21" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="BB21" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="BC21">
-            <v>2600</v>
-          </cell>
-          <cell r="BD21">
-            <v>30</v>
-          </cell>
-          <cell r="BE21" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF21" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG21" t="str">
-            <v>龙3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AV22" t="str">
-            <v>3_1</v>
-          </cell>
-          <cell r="AW22">
-            <v>3</v>
-          </cell>
-          <cell r="AX22">
-            <v>1</v>
-          </cell>
-          <cell r="AY22" t="str">
-            <v>融化</v>
-          </cell>
-          <cell r="AZ22" t="str">
-            <v>蜜蜂1、雪人1、蜘蛛1</v>
-          </cell>
-          <cell r="BC22">
-            <v>500</v>
-          </cell>
-          <cell r="BD22">
-            <v>30</v>
-          </cell>
-          <cell r="BE22" t="str">
-            <v>雪人1</v>
-          </cell>
-          <cell r="BF22" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AV23" t="str">
-            <v>3_2</v>
-          </cell>
-          <cell r="AW23">
-            <v>3</v>
-          </cell>
-          <cell r="AX23">
-            <v>2</v>
-          </cell>
-          <cell r="AY23" t="str">
-            <v>快速</v>
-          </cell>
-          <cell r="AZ23" t="str">
-            <v>蜜蜂1、雪人1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC23">
-            <v>1000</v>
-          </cell>
-          <cell r="BD23">
-            <v>30</v>
-          </cell>
-          <cell r="BE23" t="str">
-            <v>雪人1</v>
-          </cell>
-          <cell r="BF23" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG23" t="str">
-            <v>种子1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AV24" t="str">
-            <v>3_3</v>
-          </cell>
-          <cell r="AW24">
-            <v>3</v>
-          </cell>
-          <cell r="AX24">
-            <v>3</v>
-          </cell>
-          <cell r="AY24" t="str">
-            <v>隐身</v>
-          </cell>
-          <cell r="AZ24" t="str">
-            <v>雪人2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC24">
-            <v>1500</v>
-          </cell>
-          <cell r="BD24">
-            <v>30</v>
-          </cell>
-          <cell r="BE24" t="str">
-            <v>雪人2</v>
-          </cell>
-          <cell r="BF24" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG24" t="str">
-            <v>蛋2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AV25" t="str">
-            <v>3_4</v>
-          </cell>
-          <cell r="AW25">
-            <v>3</v>
-          </cell>
-          <cell r="AX25">
-            <v>4</v>
-          </cell>
-          <cell r="AY25" t="str">
-            <v>出场限时护盾</v>
-          </cell>
-          <cell r="AZ25" t="str">
-            <v>雪人2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC25">
-            <v>2100</v>
-          </cell>
-          <cell r="BD25">
-            <v>30</v>
-          </cell>
-          <cell r="BE25" t="str">
-            <v>雪人2</v>
-          </cell>
-          <cell r="BF25" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG25" t="str">
-            <v>种子2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AV26" t="str">
-            <v>3_5</v>
-          </cell>
-          <cell r="AW26">
-            <v>3</v>
-          </cell>
-          <cell r="AX26">
-            <v>5</v>
-          </cell>
-          <cell r="AY26" t="str">
-            <v>BOSS-范围冰冻</v>
-          </cell>
-          <cell r="AZ26" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、雪人3</v>
-          </cell>
-          <cell r="BA26" t="str">
-            <v>火箭</v>
-          </cell>
-          <cell r="BB26" t="str">
-            <v>火箭塔</v>
-          </cell>
-          <cell r="BC26">
-            <v>2600</v>
-          </cell>
-          <cell r="BD26">
-            <v>30</v>
-          </cell>
-          <cell r="BE26" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF26" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG26" t="str">
-            <v>雪人3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AV27" t="str">
-            <v>4_1</v>
-          </cell>
-          <cell r="AW27">
-            <v>4</v>
-          </cell>
-          <cell r="AX27">
-            <v>1</v>
-          </cell>
-          <cell r="AY27" t="str">
-            <v>定期锁壳减伤</v>
-          </cell>
-          <cell r="AZ27" t="str">
-            <v>蜜蜂1、乌龟1、蜘蛛1</v>
-          </cell>
-          <cell r="BC27">
-            <v>500</v>
-          </cell>
-          <cell r="BD27">
-            <v>30</v>
-          </cell>
-          <cell r="BE27" t="str">
-            <v>乌龟1</v>
-          </cell>
-          <cell r="BF27" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AV28" t="str">
-            <v>4_2</v>
-          </cell>
-          <cell r="AW28">
-            <v>4</v>
-          </cell>
-          <cell r="AX28">
-            <v>2</v>
-          </cell>
-          <cell r="AY28" t="str">
-            <v>治疗</v>
-          </cell>
-          <cell r="AZ28" t="str">
-            <v>蜜蜂1、乌龟1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC28">
-            <v>1000</v>
-          </cell>
-          <cell r="BD28">
-            <v>30</v>
-          </cell>
-          <cell r="BE28" t="str">
-            <v>乌龟1</v>
-          </cell>
-          <cell r="BF28" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG28" t="str">
-            <v>种子1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AV29" t="str">
-            <v>4_3</v>
-          </cell>
-          <cell r="AW29">
-            <v>4</v>
-          </cell>
-          <cell r="AX29">
-            <v>3</v>
-          </cell>
-          <cell r="AY29" t="str">
-            <v>持续弱化</v>
-          </cell>
-          <cell r="AZ29" t="str">
-            <v>乌龟2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC29">
-            <v>1500</v>
-          </cell>
-          <cell r="BD29">
-            <v>30</v>
-          </cell>
-          <cell r="BE29" t="str">
-            <v>乌龟2</v>
-          </cell>
-          <cell r="BF29" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG29" t="str">
-            <v>蛋2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AV30" t="str">
-            <v>4_4</v>
-          </cell>
-          <cell r="AW30">
-            <v>4</v>
-          </cell>
-          <cell r="AX30">
-            <v>4</v>
-          </cell>
-          <cell r="AY30" t="str">
-            <v>移动时减伤且快速</v>
-          </cell>
-          <cell r="AZ30" t="str">
-            <v>乌龟2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC30">
-            <v>2100</v>
-          </cell>
-          <cell r="BD30">
-            <v>30</v>
-          </cell>
-          <cell r="BE30" t="str">
-            <v>乌龟2</v>
-          </cell>
-          <cell r="BF30" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG30" t="str">
-            <v>种子2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AV31" t="str">
-            <v>4_5</v>
-          </cell>
-          <cell r="AW31">
-            <v>4</v>
-          </cell>
-          <cell r="AX31">
-            <v>5</v>
-          </cell>
-          <cell r="AY31" t="str">
-            <v>BOSS-范围护盾</v>
-          </cell>
-          <cell r="AZ31" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、乌龟3</v>
-          </cell>
-          <cell r="BA31" t="str">
-            <v>水晶</v>
-          </cell>
-          <cell r="BB31" t="str">
-            <v>水晶</v>
-          </cell>
-          <cell r="BC31">
-            <v>2600</v>
-          </cell>
-          <cell r="BD31">
-            <v>30</v>
-          </cell>
-          <cell r="BE31" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF31" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG31" t="str">
+          <cell r="BS42" t="str">
             <v>乌龟3</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3888,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4081,16 +5137,16 @@
         <v>65</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f>IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_MiFeng1;Monster_MiFeng2</v>
+        <f>IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_MiFeng1</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;100|Tow5_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;100|Tow4_1;1</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow5_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow4_1;1</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -4119,16 +5175,16 @@
         <v>66</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f>IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_MiFeng2;Monster_ZhiZhu1</v>
+        <f>IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_MiFeng1;Monster_Gui1</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;80|Tow6_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;80|Tow8_1;1</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow6_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow8_1;1</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -4157,16 +5213,16 @@
         <v>67</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f>IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_ZhiZhu1;Monster_Gui1</v>
+        <f>IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Gui1;Monster_ZhongZi1;Monster_BianFu1</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;110|Tow8_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;110|Tow5_1;1</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow8_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow5_1;1</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -4195,16 +5251,16 @@
         <v>68</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_ZhiZhu1;Monster_Gui1;Monster_ZhongZi1</v>
+        <f>IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_ZhongZi1;Monster_BianFu1;Monster_ZhiZhu1</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;150|Tow21_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;150</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow21_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -4233,16 +5289,16 @@
         <v>69</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Gui1;Monster_ZhongZi1;Monster_MiFeng3</v>
+        <f>IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_BianFu1;Monster_ZhiZhu1;Monster_Dan1</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;200|Tow3_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;200</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow3_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -4271,16 +5327,16 @@
         <v>70</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f>IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_BianFu1;Monster_Dan1</v>
+        <f>IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Dan1;Monster_MiFeng2;Monster_MiFeng3</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;260|Tow25_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;260|PlayerSkill_IceBind;1</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow25_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|PlayerSkill_IceBind;1</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -4309,16 +5365,16 @@
         <v>71</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f>IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_BianFu1;Monster_Dan2</v>
+        <f>IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Dan1;Monster_MiFeng2;Monster_FireSpirit1</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;330|Tow4_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;330</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow4_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -4347,16 +5403,16 @@
         <v>72</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f>IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Dan2;Monster_Gui2</v>
+        <f>IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_MiFeng2;Monster_FireSpirit1;Monster_Skull1</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;410|Tow10_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;410</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow10_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -4385,16 +5441,16 @@
         <v>73</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Dan2;Monster_Gui2;Monster_ZhongZi2</v>
+        <f>IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_FireSpirit1;Monster_Skull1;Monster_Scorpid1</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;500</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;500|Tow6_1;1</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow6_1;1</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -4423,16 +5479,16 @@
         <v>74</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+1,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Gui2;Monster_ZhongZi2;Monster_Dan3</v>
+        <f>IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Skull1;Monster_Scorpid1;Monster_ZhiZhu2</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,8,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;610|Tow11_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;610</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,9,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$AV:$BG,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow11_1;1</v>
+        <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -4441,63 +5497,438 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Scorpid1;Monster_ZhiZhu2;Monster_Spirit1</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;100</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Spirit1;Monster_BianFu2;Monster_Skull3</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;80|Tow3_1;1</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow3_1;1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Spirit1;Monster_BianFu2;Monster_Dan2</v>
+      </c>
+      <c r="K18" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;110</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_BianFu2;Monster_Dan2;Monster_StoneGolem1</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;150</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="23" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Dan2;Monster_StoneGolem1;Monster_Gui2</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;200|PlayerSkill_TimeBarrier;1</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|PlayerSkill_TimeBarrier;1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_StoneGolem1;Monster_Gui2;Monster_Scorpid2</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;260</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="5:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Gui2;Monster_Scorpid2;Monster_Imp1</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;330</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Scorpid2;Monster_Imp1;Monster_StoneGolem2</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;410</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Imp1;Monster_StoneGolem2;Monster_Spirit2</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;500</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4">
+        <v>20</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
+        <v>Monster_Spirit2;Monster_ZhongZi2;Monster_Imp3</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;610|Tow25_1;1</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>"Token_Diamond;"&amp;VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
+        <v>Token_Diamond;30|Tow25_1;1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24E576-1D87-47A9-9074-198EF2686893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD617A-88FF-49C0-A8FA-841ECE2C8C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,6 +570,7 @@
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -1765,7 +1766,7 @@
             <v>ResUnit_MiFeng2</v>
           </cell>
           <cell r="D3" t="str">
-            <v>挡1次伤害的护盾</v>
+            <v>挡3次伤害的护盾</v>
           </cell>
           <cell r="E3">
             <v>4</v>
@@ -1902,7 +1903,7 @@
             <v>5</v>
           </cell>
           <cell r="G7">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H7">
             <v>3</v>
@@ -2085,7 +2086,7 @@
             <v>5</v>
           </cell>
           <cell r="G13">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H13">
             <v>3</v>
@@ -2277,7 +2278,7 @@
             <v>5</v>
           </cell>
           <cell r="G19">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H19">
             <v>3</v>
@@ -2373,7 +2374,7 @@
             <v>3</v>
           </cell>
           <cell r="G22">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H22">
             <v>3</v>
@@ -2469,7 +2470,7 @@
             <v>3</v>
           </cell>
           <cell r="G25">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H25">
             <v>3</v>
@@ -2565,7 +2566,7 @@
             <v>3</v>
           </cell>
           <cell r="G28">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H28">
             <v>3</v>
@@ -2661,7 +2662,7 @@
             <v>3</v>
           </cell>
           <cell r="G31">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H31">
             <v>3</v>
@@ -2853,7 +2854,7 @@
             <v>5</v>
           </cell>
           <cell r="G37">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H37">
             <v>3</v>
@@ -2946,7 +2947,7 @@
             <v>5</v>
           </cell>
           <cell r="G40">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H40">
             <v>3</v>
@@ -3042,7 +3043,7 @@
             <v>5</v>
           </cell>
           <cell r="G43">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H43">
             <v>3</v>
@@ -3138,7 +3139,7 @@
             <v>5</v>
           </cell>
           <cell r="G46">
-            <v>2</v>
+            <v>0.8</v>
           </cell>
           <cell r="H46">
             <v>3</v>
@@ -3357,10 +3358,10 @@
             <v>1</v>
           </cell>
           <cell r="BK2" t="str">
-            <v>放塔</v>
+            <v>放塔/技能</v>
           </cell>
           <cell r="BL2" t="str">
-            <v xml:space="preserve">蜜蜂1                  </v>
+            <v xml:space="preserve">蜜蜂1   鬼1               </v>
           </cell>
           <cell r="BM2" t="str">
             <v>弩箭塔、加农炮、冰魔塔</v>
@@ -3372,10 +3373,13 @@
             <v>100</v>
           </cell>
           <cell r="BP2">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ2" t="str">
             <v>蜜蜂1</v>
+          </cell>
+          <cell r="BR2" t="str">
+            <v>鬼1</v>
           </cell>
         </row>
         <row r="3">
@@ -3389,25 +3393,25 @@
             <v>2</v>
           </cell>
           <cell r="BK3" t="str">
-            <v>技能</v>
+            <v>升级</v>
           </cell>
           <cell r="BL3" t="str">
-            <v xml:space="preserve">蜜蜂1   鬼1               </v>
+            <v xml:space="preserve">鬼1   种子1               </v>
           </cell>
           <cell r="BN3" t="str">
             <v>加速塔</v>
           </cell>
           <cell r="BO3">
+            <v>110</v>
+          </cell>
+          <cell r="BP3">
             <v>80</v>
           </cell>
-          <cell r="BP3">
-            <v>30</v>
-          </cell>
           <cell r="BQ3" t="str">
-            <v>蜜蜂1</v>
+            <v>鬼1</v>
           </cell>
           <cell r="BR3" t="str">
-            <v>鬼1</v>
+            <v>种子1</v>
           </cell>
         </row>
         <row r="4">
@@ -3421,10 +3425,10 @@
             <v>3</v>
           </cell>
           <cell r="BK4" t="str">
-            <v>升级</v>
+            <v>拖动</v>
           </cell>
           <cell r="BL4" t="str">
-            <v xml:space="preserve">蜜蜂1   鬼1   种子1   蝙蝠1         </v>
+            <v xml:space="preserve">鬼1   种子1   蝙蝠1   蜘蛛1         </v>
           </cell>
           <cell r="BM4" t="str">
             <v>雷电塔</v>
@@ -3433,19 +3437,19 @@
             <v>龙击炮</v>
           </cell>
           <cell r="BO4">
-            <v>110</v>
+            <v>120</v>
           </cell>
           <cell r="BP4">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ4" t="str">
-            <v>鬼1</v>
+            <v>种子1</v>
           </cell>
           <cell r="BR4" t="str">
-            <v>种子1</v>
+            <v>蝙蝠1</v>
           </cell>
           <cell r="BS4" t="str">
-            <v>蝙蝠1</v>
+            <v>蜘蛛1</v>
           </cell>
         </row>
         <row r="5">
@@ -3459,25 +3463,25 @@
             <v>4</v>
           </cell>
           <cell r="BK5" t="str">
-            <v>拖动</v>
+            <v>回收</v>
           </cell>
           <cell r="BL5" t="str">
-            <v xml:space="preserve">鬼1   种子1   蝙蝠1   蜘蛛1         </v>
+            <v xml:space="preserve">种子1   蝙蝠1   蜘蛛1   蛋1         </v>
           </cell>
           <cell r="BO5">
-            <v>150</v>
+            <v>130</v>
           </cell>
           <cell r="BP5">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ5" t="str">
-            <v>种子1</v>
+            <v>蝙蝠1</v>
           </cell>
           <cell r="BR5" t="str">
-            <v>蝙蝠1</v>
+            <v>蜘蛛1</v>
           </cell>
           <cell r="BS5" t="str">
-            <v>蜘蛛1</v>
+            <v>蛋1</v>
           </cell>
         </row>
         <row r="6">
@@ -3491,28 +3495,31 @@
             <v>5</v>
           </cell>
           <cell r="BK6" t="str">
-            <v>回收</v>
+            <v>/</v>
           </cell>
           <cell r="BL6" t="str">
-            <v xml:space="preserve">种子1   蝙蝠1   蜘蛛1   蛋1         </v>
+            <v xml:space="preserve">蝙蝠1   蜘蛛1   蛋1   蜜蜂2         </v>
           </cell>
           <cell r="BM6" t="str">
             <v>哥布林</v>
           </cell>
+          <cell r="BN6" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
           <cell r="BO6">
-            <v>200</v>
+            <v>140</v>
           </cell>
           <cell r="BP6">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ6" t="str">
-            <v>蝙蝠1</v>
+            <v>蜘蛛1</v>
           </cell>
           <cell r="BR6" t="str">
-            <v>蜘蛛1</v>
+            <v>蛋1</v>
           </cell>
           <cell r="BS6" t="str">
-            <v>蛋1</v>
+            <v>蜜蜂2</v>
           </cell>
         </row>
         <row r="7">
@@ -3534,14 +3541,11 @@
           <cell r="BM7" t="str">
             <v>火焰塔</v>
           </cell>
-          <cell r="BN7" t="str">
-            <v>冰霜漩涡</v>
-          </cell>
           <cell r="BO7">
-            <v>260</v>
+            <v>150</v>
           </cell>
           <cell r="BP7">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ7" t="str">
             <v>蛋1</v>
@@ -3567,16 +3571,19 @@
             <v>新玩法</v>
           </cell>
           <cell r="BL8" t="str">
-            <v xml:space="preserve">蜘蛛1   蛋1   蜜蜂2   火精灵1         </v>
+            <v xml:space="preserve">蜘蛛1   蛋1   蜜蜂2   恶灵1         </v>
           </cell>
           <cell r="BM8" t="str">
             <v>炸弹</v>
           </cell>
+          <cell r="BN8" t="str">
+            <v>雷电塔</v>
+          </cell>
           <cell r="BO8">
-            <v>330</v>
+            <v>160</v>
           </cell>
           <cell r="BP8">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ8" t="str">
             <v>蛋1</v>
@@ -3585,7 +3592,7 @@
             <v>蜜蜂2</v>
           </cell>
           <cell r="BS8" t="str">
-            <v>火精灵1</v>
+            <v>恶灵1</v>
           </cell>
         </row>
         <row r="9">
@@ -3602,22 +3609,22 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL9" t="str">
-            <v xml:space="preserve">蛋1   蜜蜂2   火精灵1   骷髅1         </v>
+            <v xml:space="preserve">蛋1   蜜蜂2   恶灵1   骷髅1         </v>
           </cell>
           <cell r="BM9" t="str">
             <v>毒雾塔</v>
           </cell>
           <cell r="BO9">
-            <v>410</v>
+            <v>170</v>
           </cell>
           <cell r="BP9">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ9" t="str">
             <v>蜜蜂2</v>
           </cell>
           <cell r="BR9" t="str">
-            <v>火精灵1</v>
+            <v>恶灵1</v>
           </cell>
           <cell r="BS9" t="str">
             <v>骷髅1</v>
@@ -3637,22 +3644,22 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL10" t="str">
-            <v xml:space="preserve">蜜蜂2   火精灵1   骷髅1   麻痹蝎1         </v>
+            <v xml:space="preserve">蜜蜂2   恶灵1   骷髅1   麻痹蝎1         </v>
           </cell>
           <cell r="BM10" t="str">
             <v>炼金塔</v>
           </cell>
           <cell r="BN10" t="str">
-            <v>雷电塔</v>
+            <v>火焰塔</v>
           </cell>
           <cell r="BO10">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP10">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ10" t="str">
-            <v>火精灵1</v>
+            <v>恶灵1</v>
           </cell>
           <cell r="BR10" t="str">
             <v>骷髅1</v>
@@ -3675,16 +3682,16 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL11" t="str">
-            <v xml:space="preserve">火精灵1   骷髅1   麻痹蝎1   蜘蛛2         </v>
+            <v xml:space="preserve">恶灵1   骷髅1   麻痹蝎1   蜘蛛2         </v>
           </cell>
           <cell r="BM11" t="str">
             <v>毒蝎塔</v>
           </cell>
           <cell r="BO11">
-            <v>610</v>
+            <v>190</v>
           </cell>
           <cell r="BP11">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ11" t="str">
             <v>骷髅1</v>
@@ -3710,13 +3717,13 @@
             <v>新玩法</v>
           </cell>
           <cell r="BL12" t="str">
-            <v xml:space="preserve">骷髅1   麻痹蝎1   蜘蛛2   恶灵1         </v>
+            <v xml:space="preserve">骷髅1   麻痹蝎1   蜘蛛2   火精灵1         </v>
           </cell>
           <cell r="BO12">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="BP12">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ12" t="str">
             <v>麻痹蝎1</v>
@@ -3725,7 +3732,7 @@
             <v>蜘蛛2</v>
           </cell>
           <cell r="BS12" t="str">
-            <v>恶灵1</v>
+            <v>火精灵1</v>
           </cell>
         </row>
         <row r="13">
@@ -3742,19 +3749,19 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL13" t="str">
-            <v>骷髅1   麻痹蝎1   蜘蛛2   恶灵1      蝙蝠2   骷髅3</v>
+            <v>骷髅1   麻痹蝎1   蜘蛛2   火精灵1      蝙蝠2   骷髅3</v>
           </cell>
           <cell r="BN13" t="str">
-            <v>火焰塔</v>
+            <v>时空结界</v>
           </cell>
           <cell r="BO13">
+            <v>210</v>
+          </cell>
+          <cell r="BP13">
             <v>80</v>
           </cell>
-          <cell r="BP13">
-            <v>30</v>
-          </cell>
           <cell r="BQ13" t="str">
-            <v>恶灵1</v>
+            <v>火精灵1</v>
           </cell>
           <cell r="BR13" t="str">
             <v>蝙蝠2</v>
@@ -3777,16 +3784,16 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL14" t="str">
-            <v xml:space="preserve">蜘蛛2   恶灵1   蝙蝠2   蛋2         </v>
+            <v xml:space="preserve">蜘蛛2   火精灵1   蝙蝠2   蛋2         </v>
           </cell>
           <cell r="BO14">
-            <v>110</v>
+            <v>220</v>
           </cell>
           <cell r="BP14">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ14" t="str">
-            <v>恶灵1</v>
+            <v>火精灵1</v>
           </cell>
           <cell r="BR14" t="str">
             <v>蝙蝠2</v>
@@ -3809,13 +3816,13 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL15" t="str">
-            <v xml:space="preserve">恶灵1   蝙蝠2   蛋2   石像1         </v>
+            <v xml:space="preserve">火精灵1   蝙蝠2   蛋2   石像1         </v>
           </cell>
           <cell r="BO15">
-            <v>150</v>
+            <v>230</v>
           </cell>
           <cell r="BP15">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ15" t="str">
             <v>蝙蝠2</v>
@@ -3843,14 +3850,11 @@
           <cell r="BL16" t="str">
             <v xml:space="preserve">蝙蝠2   蛋2   石像1   鬼2         </v>
           </cell>
-          <cell r="BN16" t="str">
-            <v>时空结界</v>
-          </cell>
           <cell r="BO16">
-            <v>200</v>
+            <v>240</v>
           </cell>
           <cell r="BP16">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ16" t="str">
             <v>蛋2</v>
@@ -3878,11 +3882,14 @@
           <cell r="BL17" t="str">
             <v xml:space="preserve">蛋2   石像1   鬼2   麻痹蝎2         </v>
           </cell>
+          <cell r="BN17" t="str">
+            <v>炸弹</v>
+          </cell>
           <cell r="BO17">
-            <v>260</v>
+            <v>250</v>
           </cell>
           <cell r="BP17">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ17" t="str">
             <v>石像1</v>
@@ -3911,10 +3918,10 @@
             <v xml:space="preserve">石像1   鬼2   麻痹蝎2   小恶魔1         </v>
           </cell>
           <cell r="BO18">
-            <v>330</v>
+            <v>260</v>
           </cell>
           <cell r="BP18">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ18" t="str">
             <v>鬼2</v>
@@ -3943,10 +3950,10 @@
             <v xml:space="preserve">鬼2   麻痹蝎2   小恶魔1   石像2         </v>
           </cell>
           <cell r="BO19">
-            <v>410</v>
+            <v>270</v>
           </cell>
           <cell r="BP19">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ19" t="str">
             <v>麻痹蝎2</v>
@@ -3975,10 +3982,10 @@
             <v xml:space="preserve">麻痹蝎2   小恶魔1   石像2   恶灵2         </v>
           </cell>
           <cell r="BO20">
-            <v>500</v>
+            <v>280</v>
           </cell>
           <cell r="BP20">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ20" t="str">
             <v>小恶魔1</v>
@@ -4007,13 +4014,13 @@
             <v>麻痹蝎2   小恶魔1   石像2   恶灵2      种子2   小恶魔3</v>
           </cell>
           <cell r="BN21" t="str">
-            <v>炸弹</v>
+            <v>毒蝎塔</v>
           </cell>
           <cell r="BO21">
-            <v>610</v>
+            <v>300</v>
           </cell>
           <cell r="BP21">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ21" t="str">
             <v>恶灵2</v>
@@ -4042,10 +4049,10 @@
             <v xml:space="preserve">蝙蝠1   蜘蛛1   鸟1   石像1         </v>
           </cell>
           <cell r="BO23">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP23">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ23" t="str">
             <v>蝙蝠1</v>
@@ -4071,10 +4078,10 @@
             <v xml:space="preserve">蜘蛛1   鸟1   石像1   小恶魔1         </v>
           </cell>
           <cell r="BO24">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP24">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ24" t="str">
             <v>蜘蛛1</v>
@@ -4103,10 +4110,10 @@
             <v xml:space="preserve">鸟1   石像1   小恶魔1   恶灵1         </v>
           </cell>
           <cell r="BO25">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP25">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ25" t="str">
             <v>鸟1</v>
@@ -4132,10 +4139,10 @@
             <v>鸟1   石像1   小恶魔1   恶灵2      鸟2   石像3</v>
           </cell>
           <cell r="BO26">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP26">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ26" t="str">
             <v>石像1</v>
@@ -4164,13 +4171,13 @@
             <v xml:space="preserve">种子1   蜜蜂1   龙1   麻痹蝎1         </v>
           </cell>
           <cell r="BN27" t="str">
-            <v>炼金塔</v>
+            <v>哥布林</v>
           </cell>
           <cell r="BO27">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP27">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ27" t="str">
             <v>恶灵2</v>
@@ -4199,10 +4206,10 @@
             <v xml:space="preserve">蜜蜂1   龙1   麻痹蝎1   蛋2         </v>
           </cell>
           <cell r="BO28">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP28">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ28" t="str">
             <v>蜜蜂1</v>
@@ -4231,10 +4238,10 @@
             <v xml:space="preserve">龙1   麻痹蝎1   蛋2   石像2         </v>
           </cell>
           <cell r="BO29">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP29">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ29" t="str">
             <v>龙1</v>
@@ -4263,10 +4270,10 @@
             <v xml:space="preserve">麻痹蝎1   蛋2   石像2   鬼2         </v>
           </cell>
           <cell r="BO30">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP30">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ30" t="str">
             <v>麻痹蝎1</v>
@@ -4295,10 +4302,10 @@
             <v>麻痹蝎1   蛋2   石像2   小恶魔2      火精灵2   龙3</v>
           </cell>
           <cell r="BO31">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP31">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ31" t="str">
             <v>蛋2</v>
@@ -4327,13 +4334,13 @@
             <v xml:space="preserve">蜜蜂1   蝙蝠1   蜘蛛1   雪人1         </v>
           </cell>
           <cell r="BN32" t="str">
-            <v>毒蝎塔</v>
+            <v>炼金塔</v>
           </cell>
           <cell r="BO32">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP32">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ32" t="str">
             <v>小恶魔2</v>
@@ -4362,10 +4369,10 @@
             <v xml:space="preserve">蝙蝠1   蜘蛛1   雪人1   蜘蛛2         </v>
           </cell>
           <cell r="BO33">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP33">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ33" t="str">
             <v>蝙蝠1</v>
@@ -4394,10 +4401,10 @@
             <v xml:space="preserve">蜘蛛1   雪人1   蜘蛛2   骷髅2         </v>
           </cell>
           <cell r="BO34">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP34">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ34" t="str">
             <v>蜘蛛1</v>
@@ -4426,10 +4433,10 @@
             <v xml:space="preserve">雪人1   蜘蛛2   骷髅2   恶灵1         </v>
           </cell>
           <cell r="BO35">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP35">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ35" t="str">
             <v>雪人1</v>
@@ -4458,10 +4465,10 @@
             <v>雪人1   蜘蛛2   骷髅2   恶灵2      雪人2   雪人3</v>
           </cell>
           <cell r="BO36">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP36">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ36" t="str">
             <v>蜘蛛2</v>
@@ -4490,13 +4497,13 @@
             <v xml:space="preserve">蝙蝠1   火精灵1   鬼1   乌龟1         </v>
           </cell>
           <cell r="BN37" t="str">
-            <v>哥布林</v>
+            <v>火箭塔</v>
           </cell>
           <cell r="BO37">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP37">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ37" t="str">
             <v>恶灵2</v>
@@ -4525,10 +4532,10 @@
             <v xml:space="preserve">火精灵1   鬼1   乌龟1   蜜蜂2         </v>
           </cell>
           <cell r="BO38">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP38">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ38" t="str">
             <v>火精灵1</v>
@@ -4557,10 +4564,10 @@
             <v xml:space="preserve">鬼1   乌龟1   蜜蜂2   乌龟2         </v>
           </cell>
           <cell r="BO39">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP39">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ39" t="str">
             <v>鬼1</v>
@@ -4589,10 +4596,10 @@
             <v xml:space="preserve">乌龟1   蜜蜂2   乌龟2   鬼2         </v>
           </cell>
           <cell r="BO40">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP40">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ40" t="str">
             <v>乌龟1</v>
@@ -4621,10 +4628,10 @@
             <v>乌龟1   蜜蜂2   乌龟2   小恶魔2      种子2   乌龟3</v>
           </cell>
           <cell r="BO41">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP41">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ41" t="str">
             <v>蜜蜂2</v>
@@ -4656,10 +4663,10 @@
             <v>水晶</v>
           </cell>
           <cell r="BO42">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP42">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ42" t="str">
             <v>小恶魔2</v>
@@ -4674,6 +4681,7 @@
       </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4944,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5138,7 +5146,7 @@
       </c>
       <c r="J6" s="2" t="str">
         <f>IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_MiFeng1</v>
+        <v>Monster_MiFeng1;Monster_Gui1</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
@@ -5146,7 +5154,7 @@
       </c>
       <c r="L6" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M6&amp;"_"&amp;N6,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow4_1;1</v>
+        <v>Token_Diamond;80|Tow4_1;1</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -5176,15 +5184,15 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_MiFeng1;Monster_Gui1</v>
+        <v>Monster_Gui1;Monster_ZhongZi1</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;80|Tow8_1;1</v>
+        <v>Token_Diamond;110|Tow8_1;1</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M7&amp;"_"&amp;N7,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow8_1;1</v>
+        <v>Token_Diamond;80|Tow8_1;1</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -5214,15 +5222,15 @@
       </c>
       <c r="J8" s="2" t="str">
         <f>IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Gui1;Monster_ZhongZi1;Monster_BianFu1</v>
+        <v>Monster_ZhongZi1;Monster_BianFu1;Monster_ZhiZhu1</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;110|Tow5_1;1</v>
+        <v>Token_Diamond;120|Tow5_1;1</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M8&amp;"_"&amp;N8,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow5_1;1</v>
+        <v>Token_Diamond;80|Tow5_1;1</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -5252,15 +5260,15 @@
       </c>
       <c r="J9" s="2" t="str">
         <f>IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_ZhongZi1;Monster_BianFu1;Monster_ZhiZhu1</v>
+        <v>Monster_BianFu1;Monster_ZhiZhu1;Monster_Dan1</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;150</v>
+        <v>Token_Diamond;130</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M9&amp;"_"&amp;N9,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -5290,15 +5298,15 @@
       </c>
       <c r="J10" s="2" t="str">
         <f>IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_BianFu1;Monster_ZhiZhu1;Monster_Dan1</v>
+        <v>Monster_ZhiZhu1;Monster_Dan1;Monster_MiFeng2</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;200</v>
+        <v>Token_Diamond;140|PlayerSkill_IceBind;1</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M10&amp;"_"&amp;N10,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80|PlayerSkill_IceBind;1</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -5332,11 +5340,11 @@
       </c>
       <c r="K11" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;260|PlayerSkill_IceBind;1</v>
+        <v>Token_Diamond;150</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M11&amp;"_"&amp;N11,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|PlayerSkill_IceBind;1</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -5366,15 +5374,15 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Dan1;Monster_MiFeng2;Monster_FireSpirit1</v>
+        <v>Monster_Dan1;Monster_MiFeng2;Monster_Spirit1</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;330</v>
+        <v>Token_Diamond;160|Tow6_1;1</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M12&amp;"_"&amp;N12,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80|Tow6_1;1</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -5404,15 +5412,15 @@
       </c>
       <c r="J13" s="2" t="str">
         <f>IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_MiFeng2;Monster_FireSpirit1;Monster_Skull1</v>
+        <v>Monster_MiFeng2;Monster_Spirit1;Monster_Skull1</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;410</v>
+        <v>Token_Diamond;170</v>
       </c>
       <c r="L13" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M13&amp;"_"&amp;N13,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -5442,15 +5450,15 @@
       </c>
       <c r="J14" s="2" t="str">
         <f>IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_FireSpirit1;Monster_Skull1;Monster_Scorpid1</v>
+        <v>Monster_Spirit1;Monster_Skull1;Monster_Scorpid1</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;500|Tow6_1;1</v>
+        <v>Token_Diamond;180|Tow3_1;1</v>
       </c>
       <c r="L14" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M14&amp;"_"&amp;N14,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow6_1;1</v>
+        <v>Token_Diamond;80|Tow3_1;1</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -5484,11 +5492,11 @@
       </c>
       <c r="K15" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;610</v>
+        <v>Token_Diamond;190</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M15&amp;"_"&amp;N15,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -5521,15 +5529,15 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Scorpid1;Monster_ZhiZhu2;Monster_Spirit1</v>
+        <v>Monster_Scorpid1;Monster_ZhiZhu2;Monster_FireSpirit1</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;100</v>
+        <v>Token_Diamond;200</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M16&amp;"_"&amp;N16,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -5562,15 +5570,15 @@
       </c>
       <c r="J17" s="2" t="str">
         <f>IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Spirit1;Monster_BianFu2;Monster_Skull3</v>
+        <v>Monster_FireSpirit1;Monster_BianFu2;Monster_Skull3</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;80|Tow3_1;1</v>
+        <v>Token_Diamond;210|PlayerSkill_TimeBarrier;1</v>
       </c>
       <c r="L17" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M17&amp;"_"&amp;N17,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow3_1;1</v>
+        <v>Token_Diamond;80|PlayerSkill_TimeBarrier;1</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -5603,15 +5611,15 @@
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+1,FALSE)="","",VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+1,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+2,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+2,FALSE),[1]怪物!$B:$K,10,FALSE))&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+3,FALSE)="","",";"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9+3,FALSE),[1]怪物!$B:$K,10,FALSE))</f>
-        <v>Monster_Spirit1;Monster_BianFu2;Monster_Dan2</v>
+        <v>Monster_FireSpirit1;Monster_BianFu2;Monster_Dan2</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;110</v>
+        <v>Token_Diamond;220</v>
       </c>
       <c r="L18" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M18&amp;"_"&amp;N18,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -5648,11 +5656,11 @@
       </c>
       <c r="K19" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;150</v>
+        <v>Token_Diamond;230</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M19&amp;"_"&amp;N19,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -5689,11 +5697,11 @@
       </c>
       <c r="K20" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;200|PlayerSkill_TimeBarrier;1</v>
+        <v>Token_Diamond;240</v>
       </c>
       <c r="L20" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M20&amp;"_"&amp;N20,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|PlayerSkill_TimeBarrier;1</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -5730,11 +5738,11 @@
       </c>
       <c r="K21" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;260</v>
+        <v>Token_Diamond;250|Tow25_1;1</v>
       </c>
       <c r="L21" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M21&amp;"_"&amp;N21,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80|Tow25_1;1</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -5771,11 +5779,11 @@
       </c>
       <c r="K22" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;330</v>
+        <v>Token_Diamond;260</v>
       </c>
       <c r="L22" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M22&amp;"_"&amp;N22,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -5812,11 +5820,11 @@
       </c>
       <c r="K23" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;410</v>
+        <v>Token_Diamond;270</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M23&amp;"_"&amp;N23,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -5853,11 +5861,11 @@
       </c>
       <c r="K24" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;500</v>
+        <v>Token_Diamond;280</v>
       </c>
       <c r="L24" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M24&amp;"_"&amp;N24,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30</v>
+        <v>Token_Diamond;80</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -5894,11 +5902,11 @@
       </c>
       <c r="K25" s="5" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,8,FALSE)&amp;IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;610|Tow25_1;1</v>
+        <v>Token_Diamond;300|Tow11_1;1</v>
       </c>
       <c r="L25" s="2" t="str">
         <f>"Token_Diamond;"&amp;VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,9,FALSE)&amp;IF(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE)="","","|"&amp;VLOOKUP(VLOOKUP(M25&amp;"_"&amp;N25,[1]挑战模式!$BH:$BS,7,FALSE),[1]防御塔!$A:$U,21,FALSE)&amp;";1")</f>
-        <v>Token_Diamond;30|Tow25_1;1</v>
+        <v>Token_Diamond;80|Tow11_1;1</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
